--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="DNF" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="294">
   <si>
     <t>Row</t>
   </si>
@@ -106,7 +104,7 @@
     <t/>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
+    <t>C1 C2 C3 C4 C5 C12</t>
   </si>
   <si>
     <t>100nF</t>
@@ -115,210 +113,210 @@
     <t>C_0805_2012Metric</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3 F4 F5</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>270uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -880,25 +878,16 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>83 (5 SMD/ 75 THT)</t>
+    <t>71 (44 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>77 (5 SMD/ 69 THT)</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>D5 D6 D7 D8 D9 D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1071,58 +1060,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1471,7 +1408,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1517,7 +1454,7 @@
         <v>284</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1545,7 +1482,7 @@
         <v>287</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1556,7 +1493,7 @@
         <v>281</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1570,10 +1507,10 @@
         <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1896,22 +1833,22 @@
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>17</v>
@@ -1920,10 +1857,10 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>27</v>
@@ -1949,22 +1886,22 @@
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>17</v>
@@ -1973,10 +1910,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>27</v>
@@ -2002,22 +1939,22 @@
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>17</v>
@@ -2026,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>27</v>
@@ -2055,22 +1992,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>39</v>
@@ -2079,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>27</v>
@@ -2108,22 +2045,22 @@
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
@@ -2132,10 +2069,10 @@
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>27</v>
@@ -2161,22 +2098,22 @@
     </row>
     <row r="19" spans="1:17" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>17</v>
@@ -2185,10 +2122,10 @@
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -2214,7 +2151,7 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>99</v>
@@ -2338,13 +2275,13 @@
         <v>119</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>27</v>
@@ -2968,7 +2905,7 @@
         <v>204</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>205</v>
@@ -3708,241 +3645,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="32" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="C2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="C3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="C4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="C5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="C6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3954,22 +3656,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="293">
   <si>
     <t>Row</t>
   </si>
@@ -383,10 +383,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Top_Bottom</t>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
     <t>J15</t>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
@@ -1407,7 +1404,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
@@ -1426,7 +1423,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1445,13 +1442,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="3">
         <v>39</v>
@@ -1459,41 +1456,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1501,13 +1498,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="3">
         <v>71</v>
@@ -2308,7 +2305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="60" customHeight="1">
+    <row r="23" spans="1:17" ht="45" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2333,11 +2330,11 @@
       <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>27</v>
@@ -2363,22 +2360,22 @@
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>23</v>
@@ -2387,10 +2384,10 @@
         <v>24</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>27</v>
@@ -2416,22 +2413,22 @@
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>23</v>
@@ -2440,10 +2437,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>27</v>
@@ -2469,22 +2466,22 @@
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
@@ -2493,10 +2490,10 @@
         <v>24</v>
       </c>
       <c r="I26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>27</v>
@@ -2522,22 +2519,22 @@
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>17</v>
@@ -2546,10 +2543,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>27</v>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>107</v>
@@ -2584,13 +2581,13 @@
         <v>108</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
@@ -2599,10 +2596,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>27</v>
@@ -2628,22 +2625,22 @@
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>17</v>
@@ -2652,10 +2649,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>27</v>
@@ -2681,22 +2678,22 @@
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>17</v>
@@ -2705,10 +2702,10 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>27</v>
@@ -2734,22 +2731,22 @@
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>47</v>
@@ -2758,10 +2755,10 @@
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>27</v>
@@ -2787,22 +2784,22 @@
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2811,10 +2808,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>27</v>
@@ -2840,22 +2837,22 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -2870,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="K33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="M33" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>27</v>
@@ -2893,22 +2890,22 @@
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>17</v>
@@ -2917,10 +2914,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>27</v>
@@ -2946,22 +2943,22 @@
     </row>
     <row r="35" spans="1:17" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>17</v>
@@ -2970,10 +2967,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>27</v>
@@ -2999,22 +2996,22 @@
     </row>
     <row r="36" spans="1:17" ht="60" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>23</v>
@@ -3023,10 +3020,10 @@
         <v>24</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -3052,22 +3049,22 @@
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3076,10 +3073,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>27</v>
@@ -3105,22 +3102,22 @@
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
@@ -3129,10 +3126,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>27</v>
@@ -3158,22 +3155,22 @@
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3182,10 +3179,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>27</v>
@@ -3211,22 +3208,22 @@
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>17</v>
@@ -3235,10 +3232,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3264,22 +3261,22 @@
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3288,10 +3285,10 @@
         <v>24</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>27</v>
@@ -3317,22 +3314,22 @@
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -3341,10 +3338,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3370,22 +3367,22 @@
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3394,10 +3391,10 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>27</v>
@@ -3423,22 +3420,22 @@
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>17</v>
@@ -3447,10 +3444,10 @@
         <v>24</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>27</v>
@@ -3476,22 +3473,22 @@
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3500,51 +3497,51 @@
         <v>24</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="K45" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="M45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="N45" s="6" t="s">
+      <c r="O45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="P45" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O45" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="P45" s="6" t="s">
+      <c r="Q45" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>17</v>
@@ -3553,10 +3550,10 @@
         <v>24</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>27</v>
@@ -3582,22 +3579,22 @@
     </row>
     <row r="47" spans="1:17" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>17</v>
@@ -3606,10 +3603,10 @@
         <v>24</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>27</v>
@@ -3656,22 +3653,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="288">
   <si>
     <t>Row</t>
   </si>
@@ -254,570 +254,555 @@
     <t>9</t>
   </si>
   <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRP3212-2R2M/16394422</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRP3212-2R2M/16394422</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>onsemi</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_SPST_B3S-1000</t>
+  </si>
+  <si>
+    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/omron-electronics-inc-emc-div/B3S-1000P/368390</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_SPST_B3S-1000</t>
-  </si>
-  <si>
-    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/omron-electronics-inc-emc-div/B3S-1000P/368390</t>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>SW6</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>SW6</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>SOT-353-5</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7DITR-ND</t>
+  </si>
+  <si>
+    <t>2057398</t>
+  </si>
+  <si>
+    <t>64T4877</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>Diodes Inc.</t>
-  </si>
-  <si>
-    <t>SOT-353-5</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7DITR-ND</t>
-  </si>
-  <si>
-    <t>2057398</t>
-  </si>
-  <si>
-    <t>64T4877</t>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
   </si>
   <si>
@@ -875,7 +860,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>71 (44 SMD/ 25 THT)</t>
+    <t>67 (40 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1393,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1423,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1442,55 +1427,55 @@
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F2" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1498,16 +1483,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1987,7 +1972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -2000,23 +1985,23 @@
       <c r="D17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>27</v>
+      <c r="I17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>27</v>
@@ -2040,24 +2025,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1">
+    <row r="18" spans="1:17" ht="60" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
@@ -2066,10 +2051,10 @@
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>27</v>
@@ -2093,36 +2078,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="60" customHeight="1">
+    <row r="19" spans="1:17" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -2148,34 +2133,34 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>27</v>
@@ -2199,36 +2184,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1">
+    <row r="21" spans="1:17" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>113</v>
+      <c r="I21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>27</v>
@@ -2254,34 +2239,34 @@
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>27</v>
+      <c r="J22" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>27</v>
@@ -2305,36 +2290,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45" customHeight="1">
+    <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>81</v>
+      <c r="I23" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>27</v>
@@ -2360,22 +2345,22 @@
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>23</v>
@@ -2384,10 +2369,10 @@
         <v>24</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>27</v>
@@ -2413,34 +2398,34 @@
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>27</v>
@@ -2466,22 +2451,22 @@
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
@@ -2490,10 +2475,10 @@
         <v>24</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>27</v>
@@ -2519,22 +2504,22 @@
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>17</v>
@@ -2543,10 +2528,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>27</v>
@@ -2572,22 +2557,22 @@
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
@@ -2596,10 +2581,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>27</v>
@@ -2625,22 +2610,22 @@
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>17</v>
@@ -2649,10 +2634,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>27</v>
@@ -2678,34 +2663,34 @@
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>27</v>
@@ -2731,34 +2716,34 @@
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>27</v>
@@ -2782,24 +2767,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="30" customHeight="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2807,20 +2792,20 @@
       <c r="H32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="I32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>27</v>
+      <c r="L32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>27</v>
@@ -2835,24 +2820,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>195</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -2860,20 +2845,20 @@
       <c r="H33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>195</v>
+      <c r="I33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>27</v>
@@ -2890,22 +2875,22 @@
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>203</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>17</v>
@@ -2941,15 +2926,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1">
+    <row r="35" spans="1:17" ht="60" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>208</v>
@@ -2958,72 +2943,72 @@
         <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="60" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="H36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -3049,22 +3034,22 @@
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3073,10 +3058,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>27</v>
@@ -3102,22 +3087,22 @@
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
@@ -3126,10 +3111,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>27</v>
@@ -3155,22 +3140,22 @@
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3179,10 +3164,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>27</v>
@@ -3208,22 +3193,22 @@
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>17</v>
@@ -3232,10 +3217,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3261,22 +3246,22 @@
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3285,10 +3270,10 @@
         <v>24</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>27</v>
@@ -3314,13 +3299,13 @@
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>235</v>
@@ -3329,7 +3314,7 @@
         <v>236</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -3338,10 +3323,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3367,22 +3352,22 @@
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3391,10 +3376,10 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>27</v>
@@ -3420,22 +3405,22 @@
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>17</v>
@@ -3444,51 +3429,51 @@
         <v>24</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J44" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>27</v>
+      <c r="N44" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3497,51 +3482,51 @@
         <v>24</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>27</v>
+        <v>260</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>17</v>
@@ -3550,10 +3535,10 @@
         <v>24</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>27</v>
@@ -3574,59 +3559,6 @@
         <v>27</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3653,22 +3585,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -668,13 +668,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>SW_SPST_B3S-1000</t>
-  </si>
-  <si>
-    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/omron-electronics-inc-emc-div/B3S-1000P/368390</t>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
     <t>29</t>
@@ -860,7 +860,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (40 SMD/ 25 THT)</t>
+    <t>67 (34 SMD/ 31 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -860,7 +860,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (34 SMD/ 31 THT)</t>
+    <t>67 (40 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="284">
   <si>
     <t>Row</t>
   </si>
@@ -278,6 +278,24 @@
     <t>10</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J24 J25</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -296,7 +314,7 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -320,7 +338,7 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -344,7 +362,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -362,30 +380,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -461,12 +455,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
@@ -860,7 +848,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (40 SMD/ 25 THT)</t>
+    <t>68 (40 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1408,7 +1396,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1427,13 +1415,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -1441,41 +1429,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1483,16 +1471,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2025,7 +2013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="60" customHeight="1">
+    <row r="18" spans="1:17">
       <c r="A18" s="9" t="s">
         <v>85</v>
       </c>
@@ -2045,69 +2033,69 @@
         <v>89</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="60" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -2133,87 +2121,87 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="K20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="H21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>27</v>
@@ -2239,34 +2227,34 @@
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>27</v>
@@ -2292,22 +2280,22 @@
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>23</v>
@@ -2316,10 +2304,10 @@
         <v>24</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>27</v>
@@ -2345,22 +2333,22 @@
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>23</v>
@@ -2369,10 +2357,10 @@
         <v>24</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>27</v>
@@ -2398,22 +2386,22 @@
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>17</v>
@@ -2422,10 +2410,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>27</v>
@@ -2451,22 +2439,22 @@
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
@@ -2475,10 +2463,10 @@
         <v>24</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>27</v>
@@ -2504,22 +2492,22 @@
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>17</v>
@@ -2528,10 +2516,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>27</v>
@@ -2557,22 +2545,22 @@
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
@@ -2581,10 +2569,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>27</v>
@@ -2610,22 +2598,22 @@
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>17</v>
@@ -2634,10 +2622,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>27</v>
@@ -2663,22 +2651,22 @@
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>47</v>
@@ -2687,10 +2675,10 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>27</v>
@@ -2716,22 +2704,22 @@
     </row>
     <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>17</v>
@@ -2740,10 +2728,10 @@
         <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>27</v>
@@ -2769,22 +2757,22 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2799,13 +2787,13 @@
         <v>27</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>27</v>
@@ -2822,22 +2810,22 @@
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -2846,10 +2834,10 @@
         <v>24</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>27</v>
@@ -2875,22 +2863,22 @@
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>17</v>
@@ -2899,10 +2887,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>27</v>
@@ -2928,22 +2916,22 @@
     </row>
     <row r="35" spans="1:17" ht="60" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>23</v>
@@ -2952,10 +2940,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>27</v>
@@ -2981,22 +2969,22 @@
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>17</v>
@@ -3005,10 +2993,10 @@
         <v>24</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -3034,22 +3022,22 @@
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3058,10 +3046,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>27</v>
@@ -3087,22 +3075,22 @@
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
@@ -3111,10 +3099,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>27</v>
@@ -3140,22 +3128,22 @@
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3164,10 +3152,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>27</v>
@@ -3193,22 +3181,22 @@
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>17</v>
@@ -3217,10 +3205,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3246,22 +3234,22 @@
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3270,10 +3258,10 @@
         <v>24</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>27</v>
@@ -3299,22 +3287,22 @@
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -3323,10 +3311,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3352,22 +3340,22 @@
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3376,10 +3364,10 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>27</v>
@@ -3405,22 +3393,22 @@
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>17</v>
@@ -3429,51 +3417,51 @@
         <v>24</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N44" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="O44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="Q44" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3482,10 +3470,10 @@
         <v>24</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>27</v>
@@ -3511,22 +3499,22 @@
     </row>
     <row r="46" spans="1:17" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>17</v>
@@ -3535,10 +3523,10 @@
         <v>24</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>27</v>
@@ -3585,22 +3573,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="281">
   <si>
     <t>Row</t>
   </si>
@@ -278,517 +278,508 @@
     <t>10</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>J24 J25</t>
+    <t>J4 J24 J25</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
   </si>
   <si>
     <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRP3212-2R2M/16394422</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRP3212-2R2M/16394422</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>onsemi</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>SW6</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>SW6</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>SOT-353-5</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7DITR-ND</t>
+  </si>
+  <si>
+    <t>2057398</t>
+  </si>
+  <si>
+    <t>64T4877</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>Diodes Inc.</t>
-  </si>
-  <si>
-    <t>SOT-353-5</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7DITR-ND</t>
-  </si>
-  <si>
-    <t>2057398</t>
-  </si>
-  <si>
-    <t>64T4877</t>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
   </si>
   <si>
     <t>37</t>
-  </si>
-  <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
-  </si>
-  <si>
-    <t>38</t>
   </si>
   <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
@@ -1366,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1396,7 +1387,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1415,55 +1406,55 @@
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F2" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1471,13 +1462,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F6" s="3">
         <v>68</v>
@@ -2013,7 +2004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="60" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>85</v>
       </c>
@@ -2033,16 +2024,16 @@
         <v>89</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>27</v>
+      <c r="J18" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>27</v>
@@ -2066,36 +2057,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="60" customHeight="1">
+    <row r="19" spans="1:17" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -2121,34 +2112,34 @@
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>27</v>
@@ -2172,36 +2163,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1">
+    <row r="21" spans="1:17" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>113</v>
+      <c r="I21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>27</v>
@@ -2225,36 +2216,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45" customHeight="1">
+    <row r="22" spans="1:17" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>27</v>
+      <c r="I22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>27</v>
@@ -2280,22 +2271,22 @@
     </row>
     <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>23</v>
@@ -2304,10 +2295,10 @@
         <v>24</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>27</v>
@@ -2333,34 +2324,34 @@
     </row>
     <row r="24" spans="1:17" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>27</v>
@@ -2386,34 +2377,34 @@
     </row>
     <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>27</v>
@@ -2439,22 +2430,22 @@
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
@@ -2463,10 +2454,10 @@
         <v>24</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>27</v>
@@ -2492,22 +2483,22 @@
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>17</v>
@@ -2516,10 +2507,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>27</v>
@@ -2545,22 +2536,22 @@
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>17</v>
@@ -2569,10 +2560,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>27</v>
@@ -2598,34 +2589,34 @@
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>27</v>
@@ -2651,34 +2642,34 @@
     </row>
     <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>27</v>
@@ -2702,24 +2693,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30" customHeight="1">
+    <row r="31" spans="1:17">
       <c r="A31" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>17</v>
@@ -2727,21 +2718,21 @@
       <c r="H31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N31" s="8" t="s">
         <v>27</v>
       </c>
@@ -2755,24 +2746,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>188</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2780,20 +2771,20 @@
       <c r="H32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>186</v>
+      <c r="I32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>27</v>
@@ -2810,22 +2801,22 @@
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -2834,10 +2825,10 @@
         <v>24</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>27</v>
@@ -2861,89 +2852,89 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30" customHeight="1">
+    <row r="34" spans="1:17" ht="60" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="J34" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="60" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="H35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>27</v>
@@ -2969,22 +2960,22 @@
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>17</v>
@@ -2993,10 +2984,10 @@
         <v>24</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -3025,19 +3016,19 @@
         <v>215</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3046,10 +3037,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>27</v>
@@ -3075,22 +3066,22 @@
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="E38" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
@@ -3099,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>27</v>
@@ -3131,10 +3122,10 @@
         <v>220</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>221</v>
@@ -3143,7 +3134,7 @@
         <v>222</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3152,10 +3143,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>27</v>
@@ -3184,10 +3175,10 @@
         <v>223</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>224</v>
@@ -3196,7 +3187,7 @@
         <v>225</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>17</v>
@@ -3205,10 +3196,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3234,22 +3225,22 @@
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3258,10 +3249,10 @@
         <v>24</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>27</v>
@@ -3287,22 +3278,22 @@
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -3311,10 +3302,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3342,20 +3333,20 @@
       <c r="A43" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>229</v>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3364,51 +3355,51 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>27</v>
+        <v>241</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>17</v>
@@ -3417,51 +3408,51 @@
         <v>24</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>27</v>
+        <v>253</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3470,10 +3461,10 @@
         <v>24</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>27</v>
@@ -3494,59 +3485,6 @@
         <v>27</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3573,22 +3511,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -305,10 +305,10 @@
     <t>NMJ6HCD2</t>
   </si>
   <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
+    <t>J3 J9 J10 J11 J12 J15</t>
+  </si>
+  <si>
+    <t>EXP1</t>
   </si>
   <si>
     <t>Jack_6.35mm_Horizontal</t>
@@ -839,7 +839,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>68 (40 SMD/ 26 THT)</t>
+    <t>69 (40 SMD/ 27 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1471,7 +1471,7 @@
         <v>276</v>
       </c>
       <c r="F6" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2077,7 +2077,7 @@
         <v>97</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="283">
   <si>
     <t>Row</t>
   </si>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
     <t>onsemi</t>
@@ -1387,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1406,13 +1412,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3">
         <v>37</v>
@@ -1420,41 +1426,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1462,13 +1468,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
         <v>69</v>
@@ -2693,7 +2699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>182</v>
       </c>
@@ -2718,17 +2724,17 @@
       <c r="H31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>27</v>
+      <c r="I31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>183</v>
@@ -2748,22 +2754,22 @@
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>17</v>
@@ -2772,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>27</v>
@@ -2801,22 +2807,22 @@
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -2825,10 +2831,10 @@
         <v>24</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>27</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="34" spans="1:17" ht="60" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>23</v>
@@ -2878,10 +2884,10 @@
         <v>24</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>27</v>
@@ -2907,22 +2913,22 @@
     </row>
     <row r="35" spans="1:17" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>17</v>
@@ -2931,10 +2937,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>27</v>
@@ -2960,22 +2966,22 @@
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>17</v>
@@ -2984,10 +2990,10 @@
         <v>24</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>27</v>
@@ -3013,22 +3019,22 @@
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3037,10 +3043,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>27</v>
@@ -3066,22 +3072,22 @@
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>17</v>
@@ -3090,10 +3096,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>27</v>
@@ -3119,22 +3125,22 @@
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3143,10 +3149,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>27</v>
@@ -3172,22 +3178,22 @@
     </row>
     <row r="40" spans="1:17" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>17</v>
@@ -3196,10 +3202,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>27</v>
@@ -3225,22 +3231,22 @@
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3249,10 +3255,10 @@
         <v>24</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>27</v>
@@ -3278,22 +3284,22 @@
     </row>
     <row r="42" spans="1:17" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>17</v>
@@ -3302,10 +3308,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>27</v>
@@ -3331,22 +3337,22 @@
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3355,51 +3361,51 @@
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>17</v>
@@ -3408,10 +3414,10 @@
         <v>24</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>27</v>
@@ -3437,22 +3443,22 @@
     </row>
     <row r="45" spans="1:17" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3461,10 +3467,10 @@
         <v>24</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>27</v>
@@ -3511,22 +3517,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="289">
   <si>
     <t>Row</t>
   </si>
@@ -71,6 +71,12 @@
     <t>OC_NEWARK</t>
   </si>
   <si>
+    <t>Field4</t>
+  </si>
+  <si>
+    <t>Field5</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -104,7 +110,7 @@
     <t/>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C12</t>
+    <t>C1 C2 C3 C4 C5</t>
   </si>
   <si>
     <t>100nF</t>
@@ -113,55 +119,100 @@
     <t>C_0805_2012Metric</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Hirose</t>
+  </si>
+  <si>
+    <t>2x DF40C-100DS-0.4V</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>270uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>RGB LED with integrated controller</t>
@@ -182,6 +233,9 @@
     <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
   </si>
   <si>
@@ -203,7 +257,7 @@
     <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
   </si>
   <si>
     <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
@@ -227,7 +281,7 @@
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
   </si>
   <si>
-    <t>8</t>
+    <t>11</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -251,7 +305,7 @@
     <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
   </si>
   <si>
-    <t>9</t>
+    <t>12</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -275,7 +329,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>10</t>
+    <t>13</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -296,7 +350,7 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
-    <t>11</t>
+    <t>14</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -320,10 +374,7 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+    <t>15</t>
   </si>
   <si>
     <t>Raspberry_Pi_2_3</t>
@@ -344,7 +395,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -362,10 +413,7 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -389,7 +437,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -413,7 +461,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -437,7 +485,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -461,46 +509,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -524,7 +533,7 @@
     <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRP3212-2R2M/16394422</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -533,7 +542,7 @@
     <t>L_Ferrite</t>
   </si>
   <si>
-    <t>L1 L2 L3 L4 L5</t>
+    <t>L1 L2 L3 L4</t>
   </si>
   <si>
     <t>120_100MHz</t>
@@ -548,7 +557,7 @@
     <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -566,7 +575,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>FDS4435BZ</t>
@@ -590,7 +599,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -611,7 +620,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R3</t>
@@ -626,7 +635,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R1 R5</t>
@@ -638,7 +647,16 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R2 R6</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -662,7 +680,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW5</t>
@@ -671,13 +689,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>30</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW1</t>
@@ -686,16 +704,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>32</t>
+    <t>34</t>
   </si>
   <si>
     <t>SW3</t>
@@ -704,6 +719,9 @@
     <t>F</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -725,7 +743,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>34</t>
+    <t>36</t>
   </si>
   <si>
     <t>SW7</t>
@@ -734,16 +752,16 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>35</t>
+    <t>37</t>
   </si>
   <si>
     <t>74AHCT1G32SE-7</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
+    <t>U3 U4</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
   </si>
   <si>
     <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
@@ -767,7 +785,7 @@
     <t>64T4877</t>
   </si>
   <si>
-    <t>36</t>
+    <t>38</t>
   </si>
   <si>
     <t>Pico</t>
@@ -785,7 +803,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
   </si>
   <si>
-    <t>37</t>
+    <t>39</t>
   </si>
   <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
@@ -845,7 +863,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (40 SMD/ 27 THT)</t>
+    <t>71 (44 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1363,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1389,11 +1407,13 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32" customHeight="1">
+    <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1409,78 +1429,80 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="C3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="C4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="C3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="C4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="C5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F6" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1532,225 +1554,255 @@
       <c r="Q8" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1">
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>49</v>
@@ -1765,1426 +1817,1588 @@
         <v>51</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="J14" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="K14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="E16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="G16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="K16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="K17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="D18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="E18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="60" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="K18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="K19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="G20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="K20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="60" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="K21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="G22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="K22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="K23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="45" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="D24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="E24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="F24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="G24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="G25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="K25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="G26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J26" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="K26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="K27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="D28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="E28" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="F28" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="G28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="K28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="K29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="E30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="G30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="K30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="11" t="s">
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="B32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="D32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="E32" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="G32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="M32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="K33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="C34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="60" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="F34" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="K34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="60" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
+      <c r="C35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="K35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="B36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="F36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="D37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="F37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
+      <c r="C38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="G38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="J38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="30" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="H39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="K39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>226</v>
@@ -3193,310 +3407,464 @@
         <v>227</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="30" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="F41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="B42" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="E42" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="F42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="D43" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E43" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="F43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="30" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="C44" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="G44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="J44" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="K44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="B45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="N43" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="O43" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="P43" s="6" t="s">
+      <c r="E45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="G45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="J45" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="K45" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="L45" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" s="11" t="s">
+      <c r="M45" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="O45" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="P45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="Q45" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="R45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D46" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E46" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="G46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="J46" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="K46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>27</v>
+      <c r="B47" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="C1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3517,22 +3885,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="318">
   <si>
     <t>Row</t>
   </si>
@@ -935,16 +937,31 @@
     <t>Component Count:</t>
   </si>
   <si>
+    <t>79 (53 SMD/ 24 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
     <t>78 (53 SMD/ 23 THT)</t>
   </si>
   <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1117,6 +1134,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1503,7 +1572,7 @@
         <v>303</v>
       </c>
       <c r="F2" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1531,7 +1600,7 @@
         <v>306</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1542,7 +1611,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1556,7 +1625,7 @@
         <v>302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F6" s="3">
         <v>78</v>
@@ -3419,6 +3488,209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="C3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3430,22 +3702,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="347">
   <si>
     <t>Row</t>
   </si>
@@ -97,6 +97,24 @@
     <t>2</t>
   </si>
   <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C31 C32</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -112,7 +130,7 @@
     <t>50V/10%</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>C7 C8</t>
@@ -127,45 +145,51 @@
     <t>187-CL21B103KBANNNC</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C11</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C11 C19 C21 C23 C25 C26 C27 C29 C30 C33</t>
   </si>
   <si>
     <t>100n</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>1276-1180-1-ND</t>
+  </si>
+  <si>
+    <t>581-08055C104K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>1276-1180-1-ND</t>
-  </si>
-  <si>
-    <t>581-08055C104K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C6 C12 C14 C15 C16 C20</t>
+    <t>C22 C24</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C6 C12 C14 C15 C16 C17 C18 C20</t>
   </si>
   <si>
     <t>22u</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
   </si>
   <si>
@@ -196,7 +220,7 @@
     <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>ComputeModule4-CM4</t>
@@ -211,7 +235,7 @@
     <t>DF40C-100DS-0.4V</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>Light emitting diode</t>
@@ -229,10 +253,7 @@
     <t>LED_0805_2012Metric</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>D5</t>
@@ -241,7 +262,7 @@
     <t>LED Y</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>RGB LED with integrated controller</t>
@@ -262,7 +283,7 @@
     <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
@@ -286,7 +307,34 @@
     <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
   </si>
   <si>
-    <t>12</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>641-2115-1-ND</t>
+  </si>
+  <si>
+    <t>821-SS34LRVG</t>
+  </si>
+  <si>
+    <t>40V/3A</t>
   </si>
   <si>
     <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
@@ -295,43 +343,16 @@
     <t>1N5817</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+    <t>D8 D9</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>641-2115-1-ND</t>
-  </si>
-  <si>
-    <t>821-SS34LRVG</t>
-  </si>
-  <si>
-    <t>40V/3A</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -355,7 +376,7 @@
     <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
   </si>
   <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -379,7 +400,22 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>16</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -403,7 +439,7 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>Raspberry_Pi_2_3</t>
@@ -424,7 +460,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>18</t>
+    <t>21</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -442,7 +478,7 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>19</t>
+    <t>22</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -466,7 +502,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>20</t>
+    <t>23</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -490,31 +526,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -538,7 +550,22 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Amphenol_10104110_Horizontal</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -562,7 +589,7 @@
     <t>815-ASPI-6045S-120MT</t>
   </si>
   <si>
-    <t>24</t>
+    <t>27</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -586,7 +613,7 @@
     <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
-    <t>25</t>
+    <t>28</t>
   </si>
   <si>
     <t>FDS4435BZ</t>
@@ -604,7 +631,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
-    <t>26</t>
+    <t>29</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -625,7 +652,13 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
-    <t>27</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>R3</t>
@@ -640,7 +673,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
-    <t>28</t>
+    <t>32</t>
   </si>
   <si>
     <t>R1 R5</t>
@@ -652,16 +685,13 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R2 R6</t>
+    <t>R2 R6 R12 R13 R14 R15</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>30</t>
+    <t>34</t>
   </si>
   <si>
     <t>Resistor, small symbol</t>
@@ -688,7 +718,7 @@
     <t>125mW/1%</t>
   </si>
   <si>
-    <t>31</t>
+    <t>35</t>
   </si>
   <si>
     <t>R8</t>
@@ -703,7 +733,7 @@
     <t>71-CRCW080510K0FKEAC</t>
   </si>
   <si>
-    <t>32</t>
+    <t>36</t>
   </si>
   <si>
     <t>R7</t>
@@ -718,6 +748,9 @@
     <t>71-CRCW0805-12.1K-E3</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
   </si>
   <si>
@@ -739,7 +772,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
-    <t>34</t>
+    <t>38</t>
   </si>
   <si>
     <t>SW5</t>
@@ -748,13 +781,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>35</t>
+    <t>39</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>36</t>
+    <t>40</t>
   </si>
   <si>
     <t>SW1</t>
@@ -763,7 +796,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>37</t>
+    <t>41</t>
   </si>
   <si>
     <t>SW2</t>
@@ -772,7 +805,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>38</t>
+    <t>42</t>
   </si>
   <si>
     <t>SW3</t>
@@ -781,7 +814,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>39</t>
+    <t>43</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -805,7 +838,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>40</t>
+    <t>44</t>
   </si>
   <si>
     <t>SW7</t>
@@ -814,7 +847,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>41</t>
+    <t>45</t>
   </si>
   <si>
     <t>74AHCT1G32SE-7</t>
@@ -832,70 +865,118 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Pico</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+  </si>
+  <si>
+    <t>296-26991-1-ND</t>
+  </si>
+  <si>
+    <t>595-TPS54331DR</t>
+  </si>
+  <si>
+    <t>Can use the tube version 296-23626-5-ND</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61302011121/4846860</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
-  </si>
-  <si>
-    <t>296-26991-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS54331DR</t>
-  </si>
-  <si>
-    <t>Can use the tube version 296-23626-5-ND</t>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -928,7 +1009,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -937,13 +1018,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>79 (53 SMD/ 24 THT)</t>
+    <t>107 (81 SMD/ 24 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>78 (53 SMD/ 23 THT)</t>
+    <t>104 (80 SMD/ 22 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -952,7 +1033,7 @@
     <t>Total Components:</t>
   </si>
   <si>
-    <t>J6</t>
+    <t>J6 J14</t>
   </si>
   <si>
     <t>Debug</t>
@@ -962,6 +1043,12 @@
   </si>
   <si>
     <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>DNF</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1522,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1533,8 +1620,8 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1548,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1563,55 +1650,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1619,16 +1706,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="F6" s="3">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1718,37 +1805,37 @@
         <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>20</v>
@@ -1774,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>19</v>
@@ -1789,194 +1876,194 @@
         <v>34</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="L12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="F14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5" t="s">
+      <c r="M15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>13</v>
@@ -1984,8 +2071,8 @@
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>69</v>
+      <c r="I16" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>20</v>
@@ -1996,28 +2083,28 @@
       <c r="L16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>20</v>
+      <c r="M16" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2025,8 +2112,8 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>69</v>
+      <c r="I17" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>20</v>
@@ -2041,65 +2128,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2107,8 +2194,8 @@
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>86</v>
+      <c r="I19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>20</v>
@@ -2119,37 +2206,37 @@
       <c r="L19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>87</v>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>20</v>
@@ -2161,27 +2248,27 @@
         <v>20</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2190,39 +2277,39 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>13</v>
@@ -2231,48 +2318,48 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>20</v>
@@ -2284,36 +2371,36 @@
         <v>20</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>20</v>
@@ -2325,27 +2412,27 @@
         <v>20</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2354,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>20</v>
@@ -2366,36 +2453,36 @@
         <v>20</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>20</v>
@@ -2412,31 +2499,31 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>20</v>
@@ -2448,77 +2535,77 @@
         <v>20</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>162</v>
+      <c r="I29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>20</v>
@@ -2529,151 +2616,151 @@
       <c r="L29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>163</v>
+      <c r="M29" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="F31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="G31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="J31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2681,8 +2768,8 @@
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>192</v>
+      <c r="I33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>20</v>
@@ -2693,28 +2780,28 @@
       <c r="L33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1">
+      <c r="M33" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>13</v>
@@ -2722,204 +2809,204 @@
       <c r="H34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>20</v>
+      <c r="I34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>200</v>
+      <c r="M34" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="J36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="7" t="s">
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="60" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="10" t="s">
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="E39" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -2927,122 +3014,122 @@
       <c r="H39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="I39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="60" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="D42" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="9" t="s">
+      <c r="E42" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>13</v>
@@ -3051,39 +3138,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3091,40 +3178,40 @@
       <c r="H43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="6" t="s">
+      <c r="B44" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>13</v>
@@ -3133,39 +3220,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3174,7 +3261,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>20</v>
@@ -3186,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
@@ -3194,10 +3281,10 @@
         <v>250</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>251</v>
@@ -3206,7 +3293,7 @@
         <v>252</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3215,7 +3302,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>20</v>
@@ -3227,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
@@ -3235,19 +3322,19 @@
         <v>253</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3256,7 +3343,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>20</v>
@@ -3268,27 +3355,27 @@
         <v>20</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3297,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>20</v>
@@ -3309,36 +3396,36 @@
         <v>20</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>20</v>
+        <v>258</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>20</v>
@@ -3350,27 +3437,27 @@
         <v>20</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>20</v>
+        <v>261</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>13</v>
@@ -3379,7 +3466,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>20</v>
@@ -3391,27 +3478,27 @@
         <v>20</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3420,7 +3507,7 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>20</v>
@@ -3432,27 +3519,27 @@
         <v>20</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>13</v>
@@ -3461,18 +3548,305 @@
         <v>19</v>
       </c>
       <c r="I52" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="D55" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="E55" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="G55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="M52" s="12" t="s">
+      <c r="B56" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3488,7 +3862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3514,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3529,55 +3903,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3585,16 +3959,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="F6" s="3">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3643,39 +4017,80 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="H10" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3702,22 +4117,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -562,7 +562,7 @@
     <t>USB_B_Micro</t>
   </si>
   <si>
-    <t>USB_Micro-B_Amphenol_10104110_Horizontal</t>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
   </si>
   <si>
     <t>26</t>
@@ -1018,13 +1018,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>107 (81 SMD/ 24 THT)</t>
+    <t>107 (80 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>104 (80 SMD/ 22 THT)</t>
+    <t>104 (79 SMD/ 23 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="351">
   <si>
     <t>Row</t>
   </si>
@@ -1018,7 +1018,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>107 (80 SMD/ 25 THT)</t>
+    <t>108 (80 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1043,6 +1043,18 @@
   </si>
   <si>
     <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
   </si>
   <si>
     <t>R16</t>
@@ -1659,7 +1671,7 @@
         <v>330</v>
       </c>
       <c r="F2" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3862,7 +3874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3872,11 +3884,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
@@ -3912,7 +3924,7 @@
         <v>330</v>
       </c>
       <c r="F2" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4053,24 +4065,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>342</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
@@ -4091,6 +4103,47 @@
         <v>20</v>
       </c>
       <c r="M10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4117,22 +4170,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="350">
   <si>
     <t>Row</t>
   </si>
@@ -70,7 +70,7 @@
     <t>C_Small</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>C23</t>
   </si>
   <si>
     <t>22p</t>
@@ -103,7 +103,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C31 C32</t>
+    <t>C7 C18</t>
   </si>
   <si>
     <t>27p</t>
@@ -115,7 +115,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C24</t>
   </si>
   <si>
     <t>2n2</t>
@@ -133,7 +133,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C7 C8</t>
+    <t>C29 C30</t>
   </si>
   <si>
     <t>10n</t>
@@ -148,7 +148,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C11 C19 C21 C23 C25 C26 C27 C29 C30 C33</t>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
   </si>
   <si>
     <t>100n</t>
@@ -172,7 +172,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C22 C24</t>
+    <t>C12 C13</t>
   </si>
   <si>
     <t>1u</t>
@@ -181,7 +181,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>C6 C12 C14 C15 C16 C17 C18 C20</t>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
   </si>
   <si>
     <t>22u</t>
@@ -205,7 +205,7 @@
     <t>C_Polarized</t>
   </si>
   <si>
-    <t>C13</t>
+    <t>C3</t>
   </si>
   <si>
     <t>270u</t>
@@ -226,7 +226,7 @@
     <t>ComputeModule4-CM4</t>
   </si>
   <si>
-    <t>CM4</t>
+    <t>CM1</t>
   </si>
   <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
@@ -244,87 +244,102 @@
     <t>LED</t>
   </si>
   <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D7</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D5 D8</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
     <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
@@ -337,21 +352,6 @@
     <t>40V/3A</t>
   </si>
   <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D8 D9</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -385,7 +385,7 @@
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
-    <t>J13</t>
+    <t>J6</t>
   </si>
   <si>
     <t>Barrel_Jack_MountingPin</t>
@@ -409,655 +409,652 @@
     <t>Conn_01x02</t>
   </si>
   <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>MIDI IN J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>MIDI_IN</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>ASPI-6045S-120M-TCT-ND</t>
+  </si>
+  <si>
+    <t>815-ASPI-6045S-120MT</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+  </si>
+  <si>
+    <t>541-1.91KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW08051K91FKEA</t>
+  </si>
+  <si>
+    <t>125mW/1%</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW080510K0FKEAC</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>541-12.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-12.1K-E3</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+  </si>
+  <si>
+    <t>296-26991-1-ND</t>
+  </si>
+  <si>
+    <t>595-TPS54331DR</t>
+  </si>
+  <si>
+    <t>Can use the tube version 296-23626-5-ND</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>108 (80 SMD/ 26 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>104 (79 SMD/ 23 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12 J15</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4 J24 J25</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>ASPI-6045S-120M-TCT-ND</t>
-  </si>
-  <si>
-    <t>815-ASPI-6045S-120MT</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
-  </si>
-  <si>
-    <t>R2 R6 R12 R13 R14 R15</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
-  </si>
-  <si>
-    <t>541-1.91KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW08051K91FKEA</t>
-  </si>
-  <si>
-    <t>125mW/1%</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW080510K0FKEAC</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>541-12.1KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW0805-12.1K-E3</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3 U4</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
-  </si>
-  <si>
-    <t>296-26991-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS54331DR</t>
-  </si>
-  <si>
-    <t>Can use the tube version 296-23626-5-ND</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>108 (80 SMD/ 26 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>104 (79 SMD/ 23 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J6 J14</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
     <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
   </si>
   <si>
-    <t>R16</t>
+    <t>R10</t>
   </si>
   <si>
     <t>DNF</t>
@@ -1647,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1662,13 +1659,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -1676,41 +1673,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1718,13 +1715,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2324,7 +2321,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>19</v>
@@ -2332,17 +2329,17 @@
       <c r="I22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2350,13 +2347,13 @@
         <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>99</v>
@@ -2365,25 +2362,25 @@
         <v>100</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>109</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
@@ -2554,29 +2551,29 @@
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>20</v>
+      <c r="B28" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>144</v>
+      <c r="I28" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>20</v>
@@ -2591,75 +2588,75 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45" customHeight="1">
+    <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J30" s="12" t="s">
         <v>20</v>
       </c>
@@ -2669,28 +2666,28 @@
       <c r="L30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>159</v>
+      <c r="M30" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>24</v>
@@ -2699,80 +2696,80 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="J32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2798,22 +2795,22 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>13</v>
@@ -2825,10 +2822,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>20</v>
@@ -2839,22 +2836,22 @@
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>36</v>
@@ -2863,39 +2860,39 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>13</v>
@@ -2904,39 +2901,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2945,39 +2942,39 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="E38" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>24</v>
@@ -3003,22 +3000,22 @@
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3027,39 +3024,39 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>24</v>
@@ -3068,7 +3065,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>20</v>
@@ -3080,27 +3077,27 @@
         <v>20</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>49</v>
@@ -3126,22 +3123,22 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>13</v>
@@ -3150,16 +3147,16 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>20</v>
@@ -3167,22 +3164,22 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3194,13 +3191,13 @@
         <v>20</v>
       </c>
       <c r="J43" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="L43" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>20</v>
@@ -3208,22 +3205,22 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>13</v>
@@ -3232,16 +3229,16 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J44" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="K44" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="L44" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>20</v>
@@ -3249,22 +3246,22 @@
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3273,39 +3270,39 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3314,39 +3311,39 @@
         <v>19</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3355,39 +3352,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3396,39 +3393,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3437,39 +3434,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="F50" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>13</v>
@@ -3478,39 +3475,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3519,39 +3516,39 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="F52" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>13</v>
@@ -3560,39 +3557,39 @@
         <v>19</v>
       </c>
       <c r="I52" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>24</v>
@@ -3601,39 +3598,39 @@
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>13</v>
@@ -3642,7 +3639,7 @@
         <v>19</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>20</v>
@@ -3659,22 +3656,22 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -3700,22 +3697,22 @@
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>13</v>
@@ -3724,39 +3721,39 @@
         <v>19</v>
       </c>
       <c r="I56" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -3765,16 +3762,16 @@
         <v>19</v>
       </c>
       <c r="I57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>20</v>
@@ -3782,22 +3779,22 @@
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="E58" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>13</v>
@@ -3806,7 +3803,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>20</v>
@@ -3823,22 +3820,22 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
@@ -3900,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3915,13 +3912,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -3929,41 +3926,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3971,13 +3968,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -4029,25 +4026,25 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>29</v>
@@ -4070,25 +4067,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>29</v>
@@ -4111,25 +4108,25 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>29</v>
@@ -4170,22 +4167,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -994,7 +994,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.0-RC1</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="373">
   <si>
     <t>Row</t>
   </si>
@@ -82,177 +82,201 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
+  </si>
+  <si>
+    <t>311-1103-1-ND</t>
+  </si>
+  <si>
+    <t>603-CC805JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>50V/5%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C220JBANFNC/3888264</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C7 C18</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>311-1103-1-ND</t>
-  </si>
-  <si>
-    <t>603-CC805JRNPO9BN220</t>
-  </si>
-  <si>
-    <t>50V/5%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C7 C18</t>
-  </si>
-  <si>
-    <t>27p</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>1276-2993-1-ND</t>
+  </si>
+  <si>
+    <t>187-CL21C222JBFNNNE</t>
+  </si>
+  <si>
+    <t>50V/10%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C29 C30</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>1276-1015-1-ND</t>
+  </si>
+  <si>
+    <t>187-CL21B103KBANNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B103KBANNNC/3886673</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>1276-1180-1-ND</t>
+  </si>
+  <si>
+    <t>581-08055C104K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C12 C13</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>25V/20%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476?utm_adgroup=Connectors%2C%20Interconnects&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_DE_Product&amp;utm_term=&amp;productid=&amp;utm_content=Connectors%2C%20Interconnects&amp;utm_id=go_cmp-225090269_adg-23739644429_ad-668713893261_dsa-40817298870_dev-c_ext-_prd-_sig-EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE&amp;gclid=EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>2n2</t>
-  </si>
-  <si>
-    <t>1276-2993-1-ND</t>
-  </si>
-  <si>
-    <t>187-CL21C222JBFNNNE</t>
-  </si>
-  <si>
-    <t>50V/10%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C29 C30</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>1276-1015-1-ND</t>
-  </si>
-  <si>
-    <t>187-CL21B103KBANNNC</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>1276-1180-1-ND</t>
-  </si>
-  <si>
-    <t>581-08055C104K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C12 C13</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>25V/20%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
   </si>
   <si>
+    <t>40V/3A</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
   </si>
   <si>
@@ -340,18 +367,12 @@
     <t>D6</t>
   </si>
   <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
     <t>641-2115-1-ND</t>
   </si>
   <si>
     <t>821-SS34LRVG</t>
   </si>
   <si>
-    <t>40V/3A</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -457,7 +478,10 @@
     <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
   </si>
   <si>
     <t>21</t>
@@ -478,9 +502,6 @@
     <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -562,6 +583,12 @@
     <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -580,12 +607,18 @@
     <t>L_Coilcraft_XAL6030-XXX</t>
   </si>
   <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
     <t>ASPI-6045S-120M-TCT-ND</t>
   </si>
   <si>
     <t>815-ASPI-6045S-120MT</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -655,6 +688,12 @@
     <t>R7 R9</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -664,9 +703,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
@@ -679,7 +715,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
   </si>
   <si>
     <t>R4 R5 R8 R11 R15 R16</t>
@@ -688,6 +724,9 @@
     <t>1K</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
@@ -703,7 +742,7 @@
     <t>1k91</t>
   </si>
   <si>
-    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
   </si>
   <si>
     <t>541-1.91KCCT-ND</t>
@@ -715,6 +754,9 @@
     <t>125mW/1%</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -730,6 +772,9 @@
     <t>71-CRCW080510K0FKEAC</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -745,6 +790,9 @@
     <t>71-CRCW0805-12.1K-E3</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
@@ -877,7 +925,10 @@
     <t>SOT-223-3_TabPin2</t>
   </si>
   <si>
-    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
     <t>47</t>
@@ -892,6 +943,12 @@
     <t>RP2040-QFN-56</t>
   </si>
   <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -928,7 +985,7 @@
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Ftps54331</t>
   </si>
   <si>
     <t>296-26991-1-ND</t>
@@ -937,7 +994,7 @@
     <t>595-TPS54331DR</t>
   </si>
   <si>
-    <t>Can use the tube version 296-23626-5-ND</t>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
   </si>
   <si>
     <t>50</t>
@@ -955,7 +1012,10 @@
     <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
   </si>
   <si>
-    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
     <t>51</t>
@@ -976,6 +1036,12 @@
     <t>Crystal_SMD_HC49-US</t>
   </si>
   <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -1052,6 +1118,9 @@
   </si>
   <si>
     <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
     <t>R10</t>
@@ -1141,12 +1210,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,6 +1229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,13 +1707,13 @@
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1659,13 +1728,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -1673,41 +1742,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1715,13 +1784,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -1768,7 +1837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1862,7 @@
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1805,54 +1874,54 @@
       <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1861,10 +1930,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
@@ -1875,245 +1944,245 @@
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="J12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>20</v>
+      <c r="M12" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>20</v>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="135" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2122,80 +2191,80 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>20</v>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2203,81 +2272,81 @@
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>20</v>
+      <c r="I19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>86</v>
+      <c r="A20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2286,80 +2355,80 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>20</v>
+        <v>101</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>102</v>
+      <c r="A22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2368,80 +2437,80 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>20</v>
+        <v>110</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="A24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>117</v>
+      <c r="H24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2450,162 +2519,162 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>20</v>
+        <v>131</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="A26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>20</v>
+      <c r="H26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>20</v>
+        <v>144</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="10" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>20</v>
+        <v>154</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -2614,162 +2683,162 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>20</v>
+      <c r="A30" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>20</v>
+        <v>172</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="B32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2777,163 +2846,163 @@
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="I33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>20</v>
+      <c r="H34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>20</v>
+        <v>205</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>201</v>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2942,80 +3011,80 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>20</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3024,162 +3093,162 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="6" t="s">
+      <c r="C40" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="60" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="G40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="J41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="H42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3187,81 +3256,81 @@
       <c r="H43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>20</v>
+      <c r="I43" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="D44" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>20</v>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3270,80 +3339,80 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>20</v>
+        <v>263</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="A46" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>248</v>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3352,80 +3421,80 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>20</v>
+        <v>263</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="A48" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>248</v>
+      <c r="H48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3434,80 +3503,80 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>20</v>
+        <v>263</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="A50" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>248</v>
+      <c r="H50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3516,162 +3585,162 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>20</v>
+        <v>285</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="A52" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>270</v>
+      <c r="H52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>20</v>
+        <v>290</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>20</v>
+        <v>294</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="30" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="H54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>20</v>
+        <v>303</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -3679,81 +3748,81 @@
       <c r="H55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>20</v>
+      <c r="I55" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="A56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>296</v>
+      <c r="H56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -3762,80 +3831,80 @@
         <v>19</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>20</v>
+        <v>323</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G58" s="9" t="s">
+      <c r="A58" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="H58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
@@ -3843,20 +3912,20 @@
       <c r="H59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>20</v>
+      <c r="I59" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3892,12 +3961,12 @@
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3912,13 +3981,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -3926,41 +3995,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3968,13 +4037,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -4026,122 +4095,122 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>20</v>
+        <v>361</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>20</v>
+      <c r="H10" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>20</v>
+        <v>361</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4167,22 +4236,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>349</v>
+      <c r="A4" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -655,7 +655,7 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
@@ -985,7 +985,7 @@
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Ftps54331</t>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
   </si>
   <si>
     <t>296-26991-1-ND</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -1060,7 +1060,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -1060,7 +1060,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.1-RC</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -1066,7 +1066,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-09-10</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -1060,7 +1060,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="370">
   <si>
     <t>Row</t>
   </si>
@@ -100,736 +100,727 @@
     <t>2</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t>C7 C18</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>1276-2993-1-ND</t>
+  </si>
+  <si>
+    <t>187-CL21C222JBFNNNE</t>
+  </si>
+  <si>
+    <t>50V/10%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C29 C30</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>1276-1015-1-ND</t>
+  </si>
+  <si>
+    <t>187-CL21B103KBANNNC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B103KBANNNC/3886673</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>1276-1180-1-ND</t>
+  </si>
+  <si>
+    <t>581-08055C104K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C12 C13</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>25V/20%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476?utm_adgroup=Connectors%2C%20Interconnects&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_DE_Product&amp;utm_term=&amp;productid=&amp;utm_content=Connectors%2C%20Interconnects&amp;utm_id=go_cmp-225090269_adg-23739644429_ad-668713893261_dsa-40817298870_dev-c_ext-_prd-_sig-EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE&amp;gclid=EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D7</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D5 D8</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+  </si>
+  <si>
+    <t>40V/3A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>641-2115-1-ND</t>
+  </si>
+  <si>
+    <t>821-SS34LRVG</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>MIDI IN J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>MIDI_IN</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>ASPI-6045S-120M-TCT-ND</t>
+  </si>
+  <si>
+    <t>815-ASPI-6045S-120MT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
+  </si>
+  <si>
+    <t>541-1.91KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW08051K91FKEA</t>
+  </si>
+  <si>
+    <t>125mW/1%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW080510K0FKEAC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>541-12.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-12.1K-E3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SW8</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>C7 C18</t>
-  </si>
-  <si>
-    <t>27p</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>2n2</t>
-  </si>
-  <si>
-    <t>1276-2993-1-ND</t>
-  </si>
-  <si>
-    <t>187-CL21C222JBFNNNE</t>
-  </si>
-  <si>
-    <t>50V/10%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C29 C30</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>1276-1015-1-ND</t>
-  </si>
-  <si>
-    <t>187-CL21B103KBANNNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B103KBANNNC/3886673</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>1276-1180-1-ND</t>
-  </si>
-  <si>
-    <t>581-08055C104K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C12 C13</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>25V/20%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V(51)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476?utm_adgroup=Connectors%2C%20Interconnects&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_DE_Product&amp;utm_term=&amp;productid=&amp;utm_content=Connectors%2C%20Interconnects&amp;utm_id=go_cmp-225090269_adg-23739644429_ad-668713893261_dsa-40817298870_dev-c_ext-_prd-_sig-EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE&amp;gclid=EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D2 D3 D4 D7</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D5 D8</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
-  </si>
-  <si>
-    <t>40V/3A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>641-2115-1-ND</t>
-  </si>
-  <si>
-    <t>821-SS34LRVG</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>MIDI IN J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>MIDI_IN</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>ASPI-6045S-120M-TCT-ND</t>
-  </si>
-  <si>
-    <t>815-ASPI-6045S-120MT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
-  </si>
-  <si>
-    <t>541-1.91KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW08051K91FKEA</t>
-  </si>
-  <si>
-    <t>125mW/1%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW080510K0FKEAC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>541-12.1KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW0805-12.1K-E3</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>SW8</t>
   </si>
   <si>
     <t>40</t>
@@ -1713,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1728,13 +1719,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -1742,41 +1733,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1784,13 +1775,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -1883,16 +1874,16 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>18</v>
@@ -1907,21 +1898,21 @@
         <v>20</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1930,10 +1921,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
@@ -1948,21 +1939,21 @@
         <v>20</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>14</v>
@@ -1971,10 +1962,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>18</v>
@@ -1989,74 +1980,74 @@
         <v>20</v>
       </c>
       <c r="J12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>18</v>
@@ -2068,80 +2059,80 @@
         <v>19</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2150,39 +2141,39 @@
         <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="135" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2191,39 +2182,39 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2232,39 +2223,39 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2273,80 +2264,80 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="G20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="J20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2355,39 +2346,39 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>25</v>
@@ -2396,39 +2387,39 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2437,39 +2428,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2478,39 +2469,39 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2519,39 +2510,39 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2560,121 +2551,121 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="45" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -2683,80 +2674,80 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>25</v>
@@ -2765,39 +2756,39 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>25</v>
@@ -2806,39 +2797,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2847,39 +2838,39 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2888,80 +2879,80 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="G35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="E36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -2970,39 +2961,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -3011,39 +3002,39 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3052,39 +3043,39 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3093,39 +3084,39 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>25</v>
@@ -3134,80 +3125,80 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="G41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3216,39 +3207,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3257,39 +3248,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -3298,39 +3289,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3339,39 +3330,39 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3380,39 +3371,39 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3421,39 +3412,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3462,39 +3453,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3503,39 +3494,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3544,39 +3535,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3585,39 +3576,39 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3626,39 +3617,39 @@
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>25</v>
@@ -3667,39 +3658,39 @@
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1">
       <c r="A54" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="E54" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
@@ -3708,39 +3699,39 @@
         <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -3749,39 +3740,39 @@
         <v>19</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1">
       <c r="A56" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="E56" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
@@ -3790,39 +3781,39 @@
         <v>19</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="E57" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
@@ -3831,39 +3822,39 @@
         <v>19</v>
       </c>
       <c r="I57" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
       <c r="A58" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>13</v>
@@ -3872,39 +3863,39 @@
         <v>19</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
@@ -3913,19 +3904,19 @@
         <v>19</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3966,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3981,13 +3972,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -3995,41 +3986,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4037,13 +4028,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -4095,40 +4086,40 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
@@ -4136,81 +4127,81 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4236,22 +4227,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
   <si>
     <t>Row</t>
   </si>
@@ -238,6 +238,9 @@
     <t>CM1</t>
   </si>
   <si>
+    <t>CM4</t>
+  </si>
+  <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
   </si>
   <si>
@@ -433,6 +436,105 @@
     <t>19</t>
   </si>
   <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>EXT-MIDI RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -442,7 +544,7 @@
     <t>J7 J9 J16 J17 J18 J20</t>
   </si>
   <si>
-    <t>EXP1</t>
+    <t>Jack 6.35mm</t>
   </si>
   <si>
     <t>Jack_6.35mm_Horizontal</t>
@@ -451,52 +553,13 @@
     <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
   </si>
   <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -514,54 +577,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>MIDI IN J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>MIDI_IN</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -784,16 +799,43 @@
     <t>37</t>
   </si>
   <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
   </si>
   <si>
     <t>SW_Omron_B3FS</t>
   </si>
   <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
   </si>
   <si>
     <t>SW_PUSH-12mm_Wuerth</t>
@@ -802,214 +844,139 @@
     <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
   </si>
   <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>296-26991-1-ND</t>
+  </si>
+  <si>
+    <t>595-TPS54331DR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>296-26991-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS54331DR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>51</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -1678,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1698,13 +1665,13 @@
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1719,55 +1686,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F2" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1775,13 +1742,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2170,10 +2137,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2182,7 +2149,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>28</v>
@@ -2191,30 +2158,30 @@
         <v>28</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2223,7 +2190,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>28</v>
@@ -2240,22 +2207,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2264,7 +2231,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>28</v>
@@ -2281,22 +2248,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2305,7 +2272,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>28</v>
@@ -2317,27 +2284,27 @@
         <v>28</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2346,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>28</v>
@@ -2358,27 +2325,27 @@
         <v>28</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>25</v>
@@ -2387,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>28</v>
@@ -2396,10 +2363,10 @@
         <v>28</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2407,19 +2374,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2428,39 +2395,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2469,7 +2436,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>28</v>
@@ -2481,27 +2448,27 @@
         <v>28</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2510,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>28</v>
@@ -2522,27 +2489,27 @@
         <v>28</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2551,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2568,31 +2535,31 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>28</v>
@@ -2600,40 +2567,40 @@
       <c r="K27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>28</v>
+      <c r="L27" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>28</v>
@@ -2644,37 +2611,37 @@
       <c r="L28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+      <c r="M28" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>28</v>
+      <c r="B29" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>28</v>
@@ -2682,40 +2649,40 @@
       <c r="K29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" customHeight="1">
+      <c r="L29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>82</v>
+      <c r="I30" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>28</v>
@@ -2723,40 +2690,40 @@
       <c r="K30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>28</v>
+      <c r="L30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>28</v>
@@ -2764,40 +2731,40 @@
       <c r="K31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>28</v>
+      <c r="L31" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>178</v>
+      <c r="I32" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>28</v>
@@ -2808,28 +2775,28 @@
       <c r="L32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>179</v>
+      <c r="M32" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2838,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>28</v>
@@ -2850,27 +2817,27 @@
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2879,39 +2846,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>37</v>
@@ -2920,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>28</v>
@@ -2932,27 +2899,27 @@
         <v>28</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -2961,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>28</v>
@@ -2973,27 +2940,27 @@
         <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -3002,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -3014,27 +2981,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="D38" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3043,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3055,27 +3022,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3084,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3096,27 +3063,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>25</v>
@@ -3125,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>28</v>
@@ -3137,27 +3104,27 @@
         <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>51</v>
@@ -3166,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>28</v>
@@ -3178,27 +3145,27 @@
         <v>28</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3207,39 +3174,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3248,39 +3215,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="M43" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -3289,48 +3256,48 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>28</v>
@@ -3338,40 +3305,40 @@
       <c r="K45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="12" t="s">
-        <v>28</v>
+      <c r="L45" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>28</v>
@@ -3379,40 +3346,40 @@
       <c r="K46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>28</v>
+      <c r="L46" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>254</v>
+        <v>276</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>28</v>
@@ -3424,27 +3391,27 @@
         <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3453,7 +3420,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3465,27 +3432,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>254</v>
+        <v>289</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3494,7 +3461,7 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>28</v>
@@ -3506,27 +3473,27 @@
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3535,7 +3502,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>28</v>
@@ -3547,27 +3514,27 @@
         <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3576,39 +3543,39 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>28</v>
+        <v>307</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>277</v>
+        <v>311</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3617,7 +3584,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>28</v>
@@ -3629,36 +3596,36 @@
         <v>28</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>28</v>
+        <v>318</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>28</v>
@@ -3670,253 +3637,7 @@
         <v>28</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3972,55 +3693,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F2" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4028,13 +3749,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -4086,28 +3807,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -4127,28 +3848,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>28</v>
@@ -4160,7 +3881,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4168,28 +3889,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -4227,22 +3948,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -250,7 +250,7 @@
     <t>DF40C-100DS-0.4V(51)</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476?utm_adgroup=Connectors%2C%20Interconnects&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_DE_Product&amp;utm_term=&amp;productid=&amp;utm_content=Connectors%2C%20Interconnects&amp;utm_id=go_cmp-225090269_adg-23739644429_ad-668713893261_dsa-40817298870_dev-c_ext-_prd-_sig-EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE&amp;gclid=EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE</t>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
   </si>
   <si>
     <t>10</t>
@@ -2123,7 +2123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="135" customHeight="1">
+    <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -346,7 +346,7 @@
     <t>D_SMA</t>
   </si>
   <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
     <t>40V/3A</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
   <si>
     <t>Row</t>
   </si>
@@ -187,6 +187,9 @@
     <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21AR71H105MU/3081237</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -199,13 +202,13 @@
     <t>8</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/339/CL21A226MAYNNNE_Spec.pdf</t>
   </si>
   <si>
     <t>25V/20%</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21A226MAYNNNE/10479857</t>
   </si>
   <si>
     <t>Polarized capacitor</t>
@@ -1671,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1686,13 +1689,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1700,41 +1703,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1742,13 +1745,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2038,12 +2041,12 @@
         <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2052,22 +2055,22 @@
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>28</v>
@@ -2076,30 +2079,30 @@
         <v>28</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2108,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>28</v>
@@ -2120,27 +2123,27 @@
         <v>28</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2149,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>28</v>
@@ -2158,30 +2161,30 @@
         <v>28</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2190,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>28</v>
@@ -2207,22 +2210,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2231,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>28</v>
@@ -2248,22 +2251,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2272,7 +2275,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>28</v>
@@ -2284,27 +2287,27 @@
         <v>28</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2313,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>28</v>
@@ -2325,27 +2328,27 @@
         <v>28</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>25</v>
@@ -2354,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>28</v>
@@ -2363,10 +2366,10 @@
         <v>28</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2374,19 +2377,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2395,39 +2398,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2436,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>28</v>
@@ -2448,27 +2451,27 @@
         <v>28</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2477,7 +2480,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>28</v>
@@ -2489,27 +2492,27 @@
         <v>28</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2518,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2535,22 +2538,22 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>25</v>
@@ -2559,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>28</v>
@@ -2568,30 +2571,30 @@
         <v>28</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -2600,7 +2603,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>28</v>
@@ -2617,22 +2620,22 @@
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>30</v>
@@ -2641,7 +2644,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>28</v>
@@ -2650,30 +2653,30 @@
         <v>28</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>25</v>
@@ -2682,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>28</v>
@@ -2691,30 +2694,30 @@
         <v>28</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>51</v>
@@ -2723,7 +2726,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>28</v>
@@ -2732,30 +2735,30 @@
         <v>28</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>51</v>
@@ -2764,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>28</v>
@@ -2781,22 +2784,22 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2805,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>28</v>
@@ -2817,27 +2820,27 @@
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2846,39 +2849,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>37</v>
@@ -2887,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>28</v>
@@ -2899,27 +2902,27 @@
         <v>28</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>211</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -2928,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>28</v>
@@ -2940,27 +2943,27 @@
         <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2969,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2981,27 +2984,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3010,7 +3013,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3022,27 +3025,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3051,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3063,27 +3066,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>25</v>
@@ -3092,7 +3095,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>28</v>
@@ -3104,27 +3107,27 @@
         <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>51</v>
@@ -3133,7 +3136,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>28</v>
@@ -3145,27 +3148,27 @@
         <v>28</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3174,39 +3177,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3215,39 +3218,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -3256,39 +3259,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3297,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>28</v>
@@ -3306,30 +3309,30 @@
         <v>28</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>51</v>
@@ -3338,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>28</v>
@@ -3347,30 +3350,30 @@
         <v>28</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>25</v>
@@ -3379,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>28</v>
@@ -3391,27 +3394,27 @@
         <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>284</v>
-      </c>
       <c r="F48" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3420,7 +3423,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3432,27 +3435,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3461,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>28</v>
@@ -3473,27 +3476,27 @@
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="F50" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3502,7 +3505,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>28</v>
@@ -3514,27 +3517,27 @@
         <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3543,39 +3546,39 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3584,7 +3587,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>28</v>
@@ -3596,27 +3599,27 @@
         <v>28</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
@@ -3625,7 +3628,7 @@
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>28</v>
@@ -3637,7 +3640,7 @@
         <v>28</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3693,13 +3696,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3707,41 +3710,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3749,13 +3752,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -3807,28 +3810,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3848,28 +3851,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>349</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>28</v>
@@ -3881,7 +3884,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3889,28 +3892,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3948,22 +3951,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
   <si>
     <t>Row</t>
   </si>
@@ -163,16 +163,13 @@
     <t>15</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
     <t>1276-1180-1-ND</t>
   </si>
   <si>
     <t>581-08055C104K</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
   </si>
   <si>
     <t>6</t>
@@ -184,10 +181,13 @@
     <t>1u</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21AR71H105MU/3081237</t>
+    <t>https://weblib.samsungsem.com/mlcc/mlcc-ec-data-sheet.do?partNumber=CL21B105KAFNNN</t>
+  </si>
+  <si>
+    <t>25V/10%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
   </si>
   <si>
     <t>7</t>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/339/CL21A226MAYNNNE_Spec.pdf</t>
   </si>
   <si>
     <t>25V/20%</t>
@@ -1674,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1689,13 +1686,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1703,41 +1700,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1745,13 +1742,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -1988,24 +1985,24 @@
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>14</v>
@@ -2014,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>18</v>
@@ -2029,16 +2026,16 @@
         <v>19</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>55</v>
@@ -2070,19 +2067,19 @@
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
@@ -2090,19 +2087,19 @@
         <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2111,39 +2108,39 @@
         <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2152,39 +2149,39 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2193,7 +2190,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>28</v>
@@ -2210,22 +2207,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2234,7 +2231,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>28</v>
@@ -2251,22 +2248,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2275,39 +2272,39 @@
         <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2316,39 +2313,39 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>25</v>
@@ -2357,19 +2354,19 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2377,19 +2374,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2398,39 +2395,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2439,39 +2436,39 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2480,39 +2477,39 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2521,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2538,22 +2535,22 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>25</v>
@@ -2562,39 +2559,39 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -2603,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>28</v>
@@ -2620,22 +2617,22 @@
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>30</v>
@@ -2644,39 +2641,39 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>25</v>
@@ -2685,89 +2682,89 @@
         <v>19</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="9" t="s">
+      <c r="M30" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="G32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>28</v>
@@ -2784,22 +2781,22 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2808,39 +2805,39 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2849,39 +2846,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>37</v>
@@ -2890,39 +2887,39 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -2931,39 +2928,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2972,39 +2969,39 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3013,39 +3010,39 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
@@ -3054,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3066,27 +3063,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="F40" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>25</v>
@@ -3095,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>28</v>
@@ -3107,68 +3104,68 @@
         <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3177,39 +3174,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="M42" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3218,39 +3215,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="L43" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="F44" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -3259,39 +3256,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J44" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="L44" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3300,80 +3297,80 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="6" t="s">
+      <c r="M45" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="9" t="s">
+      <c r="M46" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>25</v>
@@ -3382,39 +3379,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3423,39 +3420,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3464,39 +3461,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3505,39 +3502,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3546,39 +3543,39 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="L51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3587,39 +3584,39 @@
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
@@ -3628,19 +3625,19 @@
         <v>19</v>
       </c>
       <c r="I53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3696,13 +3693,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3710,41 +3707,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3752,13 +3749,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -3810,28 +3807,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="D9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3851,28 +3848,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>28</v>
@@ -3884,7 +3881,7 @@
         <v>28</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3892,28 +3889,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3951,22 +3948,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="360">
   <si>
     <t>Row</t>
   </si>
@@ -436,6 +436,597 @@
     <t>19</t>
   </si>
   <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>ASPI-6045S-120M-TCT-ND</t>
+  </si>
+  <si>
+    <t>815-ASPI-6045S-120MT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
+  </si>
+  <si>
+    <t>541-1.91KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW08051K91FKEA</t>
+  </si>
+  <si>
+    <t>125mW/1%</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW080510K0FKEAC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>541-12.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-12.1K-E3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>296-26991-1-ND</t>
+  </si>
+  <si>
+    <t>595-TPS54331DR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.2-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>108 (80 SMD/ 26 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>100 (79 SMD/ 21 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
   </si>
   <si>
@@ -451,6 +1042,9 @@
     <t>CP-2350</t>
   </si>
   <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
@@ -460,600 +1054,6 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>EXT-MIDI RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>ASPI-6045S-120M-TCT-ND</t>
-  </si>
-  <si>
-    <t>815-ASPI-6045S-120MT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
-  </si>
-  <si>
-    <t>541-1.91KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW08051K91FKEA</t>
-  </si>
-  <si>
-    <t>125mW/1%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW080510K0FKEAC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>541-12.1KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW0805-12.1K-E3</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>296-26991-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS54331DR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.2-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>108 (80 SMD/ 26 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>104 (79 SMD/ 23 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
     <t>J12 J15</t>
   </si>
   <si>
@@ -1063,7 +1063,10 @@
     <t>PinHeader_1x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t xml:space="preserve"> (DNF)</t>
+    <t>J23 J24</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -1645,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1671,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1686,55 +1689,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1742,16 +1745,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2537,61 +2540,61 @@
       <c r="A27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="C28" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -2600,22 +2603,22 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45" customHeight="1">
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>152</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
@@ -2676,7 +2679,7 @@
         <v>166</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>19</v>
@@ -2697,7 +2700,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
+    <row r="31" spans="1:13" ht="45" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>170</v>
       </c>
@@ -2722,81 +2725,81 @@
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="B32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="D32" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="45" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="J32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2805,121 +2808,121 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>28</v>
+      <c r="K33" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="J34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="E36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -2928,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>28</v>
@@ -2940,77 +2943,77 @@
         <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="J37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3022,77 +3025,77 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>28</v>
@@ -3104,68 +3107,68 @@
         <v>28</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="M41" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3174,39 +3177,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="L42" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>13</v>
@@ -3215,57 +3218,57 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="G44" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J44" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="J44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>257</v>
@@ -3291,7 +3294,7 @@
         <v>263</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>19</v>
@@ -3316,102 +3319,102 @@
       <c r="A46" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="G47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="J47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="E48" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3420,7 +3423,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3432,27 +3435,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3461,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>28</v>
@@ -3473,27 +3476,27 @@
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3502,13 +3505,13 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>28</v>
@@ -3521,17 +3524,17 @@
       <c r="A51" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>306</v>
@@ -3545,37 +3548,37 @@
       <c r="I51" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3584,60 +3587,19 @@
         <v>19</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3669,16 +3631,16 @@
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3693,55 +3655,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3749,16 +3711,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3802,33 +3764,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>83</v>
+        <v>340</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3836,37 +3798,37 @@
       <c r="K9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="L9" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>83</v>
@@ -3880,48 +3842,130 @@
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="H13" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="J13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3948,22 +3992,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="356">
   <si>
     <t>Row</t>
   </si>
@@ -331,13 +331,13 @@
     <t>14</t>
   </si>
   <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D5 D8</t>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D5 D6 D8</t>
   </si>
   <si>
     <t>SS34HF</t>
@@ -349,369 +349,360 @@
     <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
+    <t>641-2115-1-ND</t>
+  </si>
+  <si>
+    <t>821-SS34LRVG</t>
+  </si>
+  <si>
     <t>40V/3A</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
   </si>
   <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>641-2115-1-ND</t>
-  </si>
-  <si>
-    <t>821-SS34LRVG</t>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>ASPI-6045S-120M-TCT-ND</t>
+  </si>
+  <si>
+    <t>815-ASPI-6045S-120MT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>ASPI-6045S-120M-TCT-ND</t>
-  </si>
-  <si>
-    <t>815-ASPI-6045S-120MT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
@@ -733,223 +724,220 @@
     <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
   </si>
   <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW080510K0FKEAC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW080510K0FKEAC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>541-12.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-12.1K-E3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>541-12.1KCCT-ND</t>
-  </si>
-  <si>
-    <t>71-CRCW0805-12.1K-E3</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>296-26991-1-ND</t>
+  </si>
+  <si>
+    <t>595-TPS54331DR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>296-26991-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS54331DR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -1648,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1674,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1689,55 +1677,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F2" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1745,13 +1733,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2351,7 +2339,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>19</v>
@@ -2359,17 +2347,17 @@
       <c r="I22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>28</v>
+      <c r="J22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2377,19 +2365,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2398,39 +2386,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2439,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>28</v>
@@ -2451,27 +2439,27 @@
         <v>28</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2479,8 +2467,8 @@
       <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>130</v>
+      <c r="I25" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>28</v>
@@ -2491,16 +2479,16 @@
       <c r="L25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>131</v>
+      <c r="M25" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="9" t="s">
         <v>133</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>134</v>
@@ -2509,10 +2497,10 @@
         <v>135</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2520,8 +2508,8 @@
       <c r="H26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>83</v>
+      <c r="I26" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2536,24 +2524,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+    <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2562,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>28</v>
@@ -2570,40 +2558,40 @@
       <c r="K27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" customHeight="1">
+      <c r="L27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>28</v>
@@ -2612,39 +2600,39 @@
         <v>28</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>28</v>
@@ -2653,30 +2641,30 @@
         <v>28</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>50</v>
@@ -2684,8 +2672,8 @@
       <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>167</v>
+      <c r="I30" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>28</v>
@@ -2693,40 +2681,40 @@
       <c r="K30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="45" customHeight="1">
+      <c r="L30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>83</v>
+      <c r="I31" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>28</v>
@@ -2737,28 +2725,28 @@
       <c r="L31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>28</v>
+      <c r="M31" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>179</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2767,89 +2755,89 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>28</v>
+        <v>185</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>28</v>
@@ -2861,27 +2849,27 @@
         <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>28</v>
+        <v>203</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2890,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>28</v>
@@ -2902,30 +2890,30 @@
         <v>28</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>211</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>19</v>
@@ -2951,28 +2939,28 @@
         <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>215</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2992,10 +2980,10 @@
         <v>218</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>219</v>
@@ -3004,16 +2992,16 @@
         <v>220</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3033,10 +3021,10 @@
         <v>222</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>223</v>
@@ -3045,16 +3033,16 @@
         <v>224</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3074,10 +3062,10 @@
         <v>226</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>227</v>
@@ -3086,48 +3074,48 @@
         <v>228</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>28</v>
+        <v>229</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3136,39 +3124,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="M41" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3180,86 +3168,86 @@
         <v>212</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>28</v>
@@ -3268,39 +3256,39 @@
         <v>28</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>28</v>
@@ -3308,40 +3296,40 @@
       <c r="K45" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>265</v>
+      <c r="L45" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>28</v>
+        <v>269</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>28</v>
@@ -3353,27 +3341,27 @@
         <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3382,7 +3370,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>28</v>
@@ -3394,27 +3382,27 @@
         <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>28</v>
+        <v>282</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3423,7 +3411,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3435,27 +3423,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3464,39 +3452,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>28</v>
+        <v>294</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3505,39 +3493,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>28</v>
+        <v>305</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3546,7 +3534,7 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>28</v>
@@ -3558,48 +3546,7 @@
         <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3655,55 +3602,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F2" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3711,13 +3658,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3769,28 +3716,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3799,10 +3746,10 @@
         <v>28</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3810,25 +3757,25 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>83</v>
@@ -3851,28 +3798,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3881,10 +3828,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
@@ -3892,25 +3839,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>83</v>
@@ -3925,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3933,25 +3880,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>83</v>
@@ -3992,22 +3939,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="361">
   <si>
     <t>Row</t>
   </si>
@@ -541,6 +541,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
     <t>USB_B_Micro-Connector</t>
   </si>
   <si>
@@ -616,6 +619,9 @@
     <t>26</t>
   </si>
   <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
     <t>FDS4435BZ</t>
   </si>
   <si>
@@ -814,6 +820,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>Single OR Gate</t>
+  </si>
+  <si>
     <t>74AHCT1G32SE-7</t>
   </si>
   <si>
@@ -853,6 +862,9 @@
     <t>39</t>
   </si>
   <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
     <t>RP2040</t>
   </si>
   <si>
@@ -917,6 +929,9 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
   </si>
   <si>
     <t>W25Q128JVS-Memory_Flash</t>
@@ -1662,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1677,13 +1692,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1691,41 +1706,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1733,13 +1748,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2692,20 +2707,20 @@
       <c r="A31" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>28</v>
+      <c r="B31" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2714,7 +2729,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>28</v>
@@ -2726,27 +2741,27 @@
         <v>28</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2755,39 +2770,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
@@ -2796,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>28</v>
@@ -2808,27 +2823,27 @@
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>28</v>
+        <v>198</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2837,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>28</v>
@@ -2849,27 +2864,27 @@
         <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2878,7 +2893,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>28</v>
@@ -2890,27 +2905,27 @@
         <v>28</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
@@ -2919,7 +2934,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>28</v>
@@ -2931,27 +2946,27 @@
         <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2960,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2972,27 +2987,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3001,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3013,27 +3028,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -3042,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3054,27 +3069,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3083,39 +3098,39 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3124,39 +3139,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3165,39 +3180,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>25</v>
@@ -3206,7 +3221,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>28</v>
@@ -3215,30 +3230,30 @@
         <v>28</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>50</v>
@@ -3247,7 +3262,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>28</v>
@@ -3256,30 +3271,30 @@
         <v>28</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>28</v>
+        <v>265</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3288,7 +3303,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>28</v>
@@ -3300,27 +3315,27 @@
         <v>28</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3329,7 +3344,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>28</v>
@@ -3341,27 +3356,27 @@
         <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>28</v>
+        <v>279</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3370,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>28</v>
@@ -3382,27 +3397,27 @@
         <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3411,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3423,27 +3438,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3452,39 +3467,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>28</v>
+        <v>302</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3493,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>28</v>
@@ -3505,27 +3520,27 @@
         <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3534,7 +3549,7 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>28</v>
@@ -3546,7 +3561,7 @@
         <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3602,13 +3617,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3616,41 +3631,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3658,13 +3673,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3716,28 +3731,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3746,10 +3761,10 @@
         <v>28</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3763,19 +3778,19 @@
         <v>141</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>83</v>
@@ -3804,7 +3819,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>143</v>
@@ -3816,7 +3831,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>145</v>
@@ -3828,7 +3843,7 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>147</v>
@@ -3839,25 +3854,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>83</v>
@@ -3872,7 +3887,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3880,25 +3895,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>83</v>
@@ -3939,22 +3954,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="362">
   <si>
     <t>Row</t>
   </si>
@@ -424,7 +424,10 @@
     <t>18</t>
   </si>
   <si>
-    <t>Raspberry_Pi_2_3</t>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
   </si>
   <si>
     <t>J25</t>
@@ -820,7 +823,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>Single OR Gate</t>
+    <t>Single OR Gage</t>
   </si>
   <si>
     <t>74AHCT1G32SE-7</t>
@@ -1677,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1692,13 +1695,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1706,41 +1709,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1748,13 +1751,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2502,20 +2505,20 @@
       <c r="A26" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>28</v>
+      <c r="B26" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2524,7 +2527,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2541,22 +2544,22 @@
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2565,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>28</v>
@@ -2574,30 +2577,30 @@
         <v>28</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>25</v>
@@ -2606,7 +2609,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>28</v>
@@ -2615,30 +2618,30 @@
         <v>28</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>50</v>
@@ -2647,7 +2650,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>28</v>
@@ -2656,30 +2659,30 @@
         <v>28</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>50</v>
@@ -2705,22 +2708,22 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2729,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>28</v>
@@ -2741,27 +2744,27 @@
         <v>28</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2770,39 +2773,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>28</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
@@ -2811,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>28</v>
@@ -2823,27 +2826,27 @@
         <v>28</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="F34" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2852,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>28</v>
@@ -2864,27 +2867,27 @@
         <v>28</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2893,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>28</v>
@@ -2905,27 +2908,27 @@
         <v>28</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
@@ -2934,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>28</v>
@@ -2946,27 +2949,27 @@
         <v>28</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2975,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2987,27 +2990,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3016,7 +3019,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3028,27 +3031,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -3057,7 +3060,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3069,27 +3072,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3098,39 +3101,39 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3139,39 +3142,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3180,39 +3183,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>25</v>
@@ -3221,7 +3224,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>28</v>
@@ -3230,30 +3233,30 @@
         <v>28</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>50</v>
@@ -3262,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>28</v>
@@ -3271,30 +3274,30 @@
         <v>28</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3303,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>28</v>
@@ -3315,27 +3318,27 @@
         <v>28</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="F46" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3344,7 +3347,7 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>28</v>
@@ -3356,27 +3359,27 @@
         <v>28</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3385,7 +3388,7 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>28</v>
@@ -3397,27 +3400,27 @@
         <v>28</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="F48" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3426,7 +3429,7 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>28</v>
@@ -3438,27 +3441,27 @@
         <v>28</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3467,39 +3470,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3508,7 +3511,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>28</v>
@@ -3520,27 +3523,27 @@
         <v>28</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3549,7 +3552,7 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>28</v>
@@ -3561,7 +3564,7 @@
         <v>28</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3617,13 +3620,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3631,41 +3634,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3673,13 +3676,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3731,28 +3734,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>28</v>
@@ -3761,10 +3764,10 @@
         <v>28</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3772,25 +3775,25 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>83</v>
@@ -3813,28 +3816,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3843,10 +3846,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
@@ -3854,25 +3857,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>351</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>83</v>
@@ -3887,7 +3890,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3895,25 +3898,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>83</v>
@@ -3954,22 +3957,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="361">
   <si>
     <t>Row</t>
   </si>
@@ -232,13 +232,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>ComputeModule4-CM4</t>
+    <t>CM4</t>
   </si>
   <si>
     <t>CM1</t>
-  </si>
-  <si>
-    <t>CM4</t>
   </si>
   <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
@@ -1680,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1709,41 +1706,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1751,13 +1748,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2146,10 +2143,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2158,39 +2155,39 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2199,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>28</v>
@@ -2216,22 +2213,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2240,7 +2237,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>28</v>
@@ -2257,22 +2254,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2281,39 +2278,39 @@
         <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2322,39 +2319,39 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>30</v>
@@ -2363,19 +2360,19 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2383,19 +2380,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2404,39 +2401,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2445,39 +2442,39 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2486,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>28</v>
@@ -2503,22 +2500,22 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2527,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2544,22 +2541,22 @@
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2568,39 +2565,39 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>25</v>
@@ -2609,39 +2606,39 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>50</v>
@@ -2650,39 +2647,39 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>50</v>
@@ -2691,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>28</v>
@@ -2708,22 +2705,22 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2732,39 +2729,39 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2773,39 +2770,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
@@ -2814,39 +2811,39 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2855,39 +2852,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2896,39 +2893,39 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
@@ -2937,39 +2934,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2978,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2990,27 +2987,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="F38" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3019,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3031,27 +3028,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -3060,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3072,27 +3069,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>231</v>
-      </c>
       <c r="F40" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3101,39 +3098,39 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3142,39 +3139,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J41" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="L41" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3183,39 +3180,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>25</v>
@@ -3224,39 +3221,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>50</v>
@@ -3265,39 +3262,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3306,39 +3303,39 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3347,39 +3344,39 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3388,39 +3385,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3429,39 +3426,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3470,39 +3467,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="L49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3511,39 +3508,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3552,19 +3549,19 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3620,13 +3617,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3634,41 +3631,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3676,13 +3673,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3734,40 +3731,40 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3775,28 +3772,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="D10" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>28</v>
@@ -3816,28 +3813,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3846,10 +3843,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
@@ -3857,28 +3854,28 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>28</v>
@@ -3890,7 +3887,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3898,28 +3895,28 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>28</v>
@@ -3957,22 +3954,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
   <si>
     <t>Row</t>
   </si>
@@ -181,9 +181,6 @@
     <t>1u</t>
   </si>
   <si>
-    <t>https://weblib.samsungsem.com/mlcc/mlcc-ec-data-sheet.do?partNumber=CL21B105KAFNNN</t>
-  </si>
-  <si>
     <t>25V/10%</t>
   </si>
   <si>
@@ -631,7 +628,7 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
@@ -1677,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1692,13 +1689,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1706,41 +1703,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1748,13 +1745,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2032,24 +2029,24 @@
         <v>19</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
@@ -2058,16 +2055,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
@@ -2082,30 +2079,30 @@
         <v>28</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2114,39 +2111,39 @@
         <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2155,39 +2152,39 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -2196,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>28</v>
@@ -2213,22 +2210,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
@@ -2237,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>28</v>
@@ -2254,22 +2251,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>37</v>
@@ -2278,39 +2275,39 @@
         <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>13</v>
@@ -2319,39 +2316,39 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>30</v>
@@ -2360,19 +2357,19 @@
         <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
@@ -2380,19 +2377,19 @@
         <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2401,39 +2398,39 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2442,39 +2439,39 @@
         <v>19</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2483,7 +2480,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>28</v>
@@ -2500,22 +2497,22 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2524,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2541,22 +2538,22 @@
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2565,39 +2562,39 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>25</v>
@@ -2606,39 +2603,39 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>50</v>
@@ -2647,39 +2644,39 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>50</v>
@@ -2688,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>28</v>
@@ -2705,22 +2702,22 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2729,39 +2726,39 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2770,39 +2767,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
@@ -2811,39 +2808,39 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2852,39 +2849,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2893,39 +2890,39 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
@@ -2934,39 +2931,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2975,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2987,27 +2984,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="F38" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3016,7 +3013,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3028,27 +3025,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -3057,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3069,27 +3066,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="F40" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3098,39 +3095,39 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3139,39 +3136,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="L41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3180,39 +3177,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>25</v>
@@ -3221,39 +3218,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>50</v>
@@ -3262,39 +3259,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3303,39 +3300,39 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3344,39 +3341,39 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3385,39 +3382,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3426,39 +3423,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3467,39 +3464,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="L49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3508,39 +3505,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3549,19 +3546,19 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3617,13 +3614,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3631,41 +3628,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3673,13 +3670,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3731,40 +3728,40 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3772,28 +3769,28 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="D10" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>347</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>28</v>
@@ -3813,28 +3810,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3843,10 +3840,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
@@ -3854,28 +3851,28 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>28</v>
@@ -3887,7 +3884,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3895,28 +3892,28 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>28</v>
@@ -3954,22 +3951,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="359">
   <si>
     <t>Row</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
   </si>
   <si>
     <t>19</t>
@@ -1674,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1689,13 +1686,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1703,41 +1700,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1745,13 +1742,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2495,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
+    <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -2520,8 +2517,8 @@
       <c r="H26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>137</v>
+      <c r="I26" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>28</v>
@@ -2538,22 +2535,22 @@
     </row>
     <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
@@ -2562,39 +2559,39 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>25</v>
@@ -2603,39 +2600,39 @@
         <v>19</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>50</v>
@@ -2644,39 +2641,39 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>50</v>
@@ -2702,22 +2699,22 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
@@ -2726,39 +2723,39 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2767,39 +2764,39 @@
         <v>19</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
@@ -2808,39 +2805,39 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2849,39 +2846,39 @@
         <v>19</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>13</v>
@@ -2890,39 +2887,39 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>25</v>
@@ -2931,39 +2928,39 @@
         <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
@@ -2972,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>28</v>
@@ -2984,27 +2981,27 @@
         <v>28</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="F38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>25</v>
@@ -3013,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>28</v>
@@ -3025,27 +3022,27 @@
         <v>28</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -3054,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>28</v>
@@ -3066,27 +3063,27 @@
         <v>28</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="F40" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3095,39 +3092,39 @@
         <v>19</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="K40" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3136,39 +3133,39 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="L41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -3177,39 +3174,39 @@
         <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K42" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>25</v>
@@ -3218,39 +3215,39 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="6" t="s">
+      <c r="M43" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>50</v>
@@ -3259,39 +3256,39 @@
         <v>19</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>25</v>
@@ -3300,39 +3297,39 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -3341,39 +3338,39 @@
         <v>19</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3382,39 +3379,39 @@
         <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -3423,39 +3420,39 @@
         <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3464,39 +3461,39 @@
         <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="L49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -3505,39 +3502,39 @@
         <v>19</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
@@ -3546,19 +3543,19 @@
         <v>19</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3614,13 +3611,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3628,41 +3625,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3670,13 +3667,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3728,40 +3725,40 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3769,25 +3766,25 @@
         <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="D10" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>81</v>
@@ -3810,28 +3807,28 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>28</v>
@@ -3840,10 +3837,10 @@
         <v>28</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
@@ -3851,25 +3848,25 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>81</v>
@@ -3884,7 +3881,7 @@
         <v>28</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3892,25 +3889,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>81</v>
@@ -3951,22 +3948,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -259,7 +259,7 @@
     <t>D10</t>
   </si>
   <si>
-    <t>LED G</t>
+    <t>LED R</t>
   </si>
   <si>
     <t>LED_0805_2012Metric</t>
@@ -1000,7 +1000,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -88,7 +88,7 @@
     <t>C_Small</t>
   </si>
   <si>
-    <t>C7 C18</t>
+    <t>C23 C26</t>
   </si>
   <si>
     <t>27p</t>
@@ -121,7 +121,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C41 C43</t>
+    <t>C32 C34</t>
   </si>
   <si>
     <t>1n</t>
@@ -145,7 +145,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C42</t>
+    <t>C31</t>
   </si>
   <si>
     <t>1.2n</t>
@@ -166,7 +166,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C39 C40</t>
+    <t>C1 C11 C12 C13 C14 C16 C18 C19 C20 C21 C22 C25 C27 C28 C36 C39</t>
   </si>
   <si>
     <t>100n</t>
@@ -205,7 +205,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>C12 C13</t>
+    <t>C15 C17</t>
   </si>
   <si>
     <t>1u</t>
@@ -220,7 +220,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C2 C3 C19 C23 C28 C33 C34 C35 C36 C37 C38 C44 C45 C46 C47</t>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C29 C30 C33 C35 C38</t>
   </si>
   <si>
     <t>10u 35v</t>
@@ -259,7 +259,7 @@
     <t>CP</t>
   </si>
   <si>
-    <t>C48</t>
+    <t>C37</t>
   </si>
   <si>
     <t>100u</t>
@@ -307,7 +307,7 @@
     <t>LED</t>
   </si>
   <si>
-    <t>D10</t>
+    <t>D9</t>
   </si>
   <si>
     <t>LED R</t>
@@ -319,7 +319,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D8</t>
   </si>
   <si>
     <t>LED Y</t>
@@ -334,7 +334,7 @@
     <t>SK6812</t>
   </si>
   <si>
-    <t>D2 D3 D4 D7</t>
+    <t>D2 D3 D4 D6</t>
   </si>
   <si>
     <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
@@ -379,7 +379,7 @@
     <t>D_Schottky_Small</t>
   </si>
   <si>
-    <t>D5 D8</t>
+    <t>D5 D7</t>
   </si>
   <si>
     <t>SS34HF</t>
@@ -427,736 +427,736 @@
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>2616889</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2 R12</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>9238999</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710RL</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Resistor 10R M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>URES00256</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R1 R6</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R4 R5 R10 R11 R16 R17</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>2.2K 1%</t>
+  </si>
+  <si>
+    <t>https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr-e.pdf</t>
+  </si>
+  <si>
+    <t>9239278</t>
+  </si>
+  <si>
+    <t>RK73G1ETQTP2201D</t>
+  </si>
+  <si>
+    <t>KOA EUROPE GMBH</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>120889581</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>12K 1%</t>
+  </si>
+  <si>
+    <t>9239367</t>
+  </si>
+  <si>
+    <t>MCR01MZPF1202</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>Resistor 12K M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>20K 1%</t>
+  </si>
+  <si>
+    <t>2331485</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP2002F</t>
+  </si>
+  <si>
+    <t>Resistor 20K M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>31-AP64501SP-13CT-ND</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 5A 8-SOIC (0.154", 3.90mm Width) Exposed Pad</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.2-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>115 (87 SMD/ 26 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>107 (86 SMD/ 21 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J23 J24</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
     <t>J6</t>
   </si>
   <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
-  </si>
-  <si>
-    <t>Raspberry_Sound_Card</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Right Audio OUT Left Audio IN Left</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Vertical USB B Micro Connector</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>2616889</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2 R17</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>9238999</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710RL</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>Resistor 10R M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>URES00256</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>2.2K 1%</t>
-  </si>
-  <si>
-    <t>https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr-e.pdf</t>
-  </si>
-  <si>
-    <t>9239278</t>
-  </si>
-  <si>
-    <t>RK73G1ETQTP2201D</t>
-  </si>
-  <si>
-    <t>KOA EUROPE GMBH</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>120889581</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>12K 1%</t>
-  </si>
-  <si>
-    <t>9239367</t>
-  </si>
-  <si>
-    <t>MCR01MZPF1202</t>
-  </si>
-  <si>
-    <t>Rohm</t>
-  </si>
-  <si>
-    <t>Resistor 12K M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>20K 1%</t>
-  </si>
-  <si>
-    <t>2331485</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP2002F</t>
-  </si>
-  <si>
-    <t>Resistor 20K M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>31-AP64501SP-13CT-ND</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 5A 8-SOIC (0.154", 3.90mm Width) Exposed Pad</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.2-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>115 (87 SMD/ 26 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>107 (86 SMD/ 21 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>DIN5</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>MIDI In MIDI Out</t>
-  </si>
-  <si>
-    <t>J12 J15</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J23 J24</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
-    <t>R10</t>
+    <t>R7</t>
   </si>
   <si>
     <t>DNF</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="385">
   <si>
     <t>Row</t>
   </si>
@@ -442,448 +442,451 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
-  </si>
-  <si>
-    <t>Raspberry_Sound_Card</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J5 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Vertical USB B Micro Connector</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>2616889</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>2616889</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2 R12</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>9238999</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710RL</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Resistor 10R M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>URES00256</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2 R12</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>9238999</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710RL</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>Resistor 10R M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>URES00256</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+    <t>R1 R6</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>R1 R6</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+    <t>R4 R5 R10 R11 R16 R17</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>R4 R5 R10 R11 R16 R17</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>2.2K 1%</t>
+  </si>
+  <si>
+    <t>https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr-e.pdf</t>
+  </si>
+  <si>
+    <t>9239278</t>
+  </si>
+  <si>
+    <t>RK73G1ETQTP2201D</t>
+  </si>
+  <si>
+    <t>KOA EUROPE GMBH</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K M1005 1% 63mW</t>
+  </si>
+  <si>
+    <t>120889581</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>2.2K 1%</t>
-  </si>
-  <si>
-    <t>https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr-e.pdf</t>
-  </si>
-  <si>
-    <t>9239278</t>
-  </si>
-  <si>
-    <t>RK73G1ETQTP2201D</t>
-  </si>
-  <si>
-    <t>KOA EUROPE GMBH</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K M1005 1% 63mW</t>
-  </si>
-  <si>
-    <t>120889581</t>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>12K 1%</t>
+  </si>
+  <si>
+    <t>9239367</t>
+  </si>
+  <si>
+    <t>MCR01MZPF1202</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>Resistor 12K M1005 1% 63mW</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>12K 1%</t>
-  </si>
-  <si>
-    <t>9239367</t>
-  </si>
-  <si>
-    <t>MCR01MZPF1202</t>
-  </si>
-  <si>
-    <t>Rohm</t>
-  </si>
-  <si>
-    <t>Resistor 12K M1005 1% 63mW</t>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>20K 1%</t>
+  </si>
+  <si>
+    <t>2331485</t>
+  </si>
+  <si>
+    <t>RK73H1ETTP2002F</t>
+  </si>
+  <si>
+    <t>Resistor 20K M1005 1% 63mW</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>20K 1%</t>
-  </si>
-  <si>
-    <t>2331485</t>
-  </si>
-  <si>
-    <t>RK73H1ETTP2002F</t>
-  </si>
-  <si>
-    <t>Resistor 20K M1005 1% 63mW</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>SW_SPST_B3U-1000P</t>
+  </si>
+  <si>
+    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3u.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/omron-electronics-inc-emc-div/B3U-1000P/1534338</t>
+  </si>
+  <si>
+    <t>Boot</t>
   </si>
   <si>
     <t>36</t>
@@ -1084,13 +1087,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>115 (87 SMD/ 26 THT)</t>
+    <t>115 (88 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>107 (86 SMD/ 21 THT)</t>
+    <t>107 (87 SMD/ 20 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1752,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1773,13 +1776,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
@@ -1787,41 +1790,41 @@
     </row>
     <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1829,13 +1832,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F6" s="3">
         <v>107</v>
@@ -2785,7 +2788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1">
+    <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
@@ -2799,10 +2802,10 @@
         <v>142</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>19</v>
@@ -2811,7 +2814,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>28</v>
@@ -2844,24 +2847,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="45" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>19</v>
@@ -2869,8 +2872,8 @@
       <c r="H25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>28</v>
+      <c r="I25" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>28</v>
@@ -2890,11 +2893,11 @@
       <c r="O25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>28</v>
+      <c r="P25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>28</v>
@@ -2903,33 +2906,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45" customHeight="1">
+    <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>28</v>
@@ -2950,10 +2953,10 @@
         <v>28</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R26" s="12" t="s">
         <v>28</v>
@@ -2964,31 +2967,31 @@
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>28</v>
@@ -3009,10 +3012,10 @@
         <v>28</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>28</v>
@@ -3021,24 +3024,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1">
+    <row r="28" spans="1:19" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>65</v>
@@ -3046,8 +3049,8 @@
       <c r="H28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>174</v>
+      <c r="I28" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>28</v>
@@ -3067,11 +3070,11 @@
       <c r="O28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>176</v>
+      <c r="P28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>28</v>
@@ -3080,33 +3083,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="45" customHeight="1">
+    <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>82</v>
+      <c r="I29" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>28</v>
@@ -3126,8 +3129,8 @@
       <c r="O29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="8" t="s">
-        <v>28</v>
+      <c r="P29" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>28</v>
@@ -3141,31 +3144,31 @@
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>28</v>
@@ -3186,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>28</v>
@@ -3200,52 +3203,52 @@
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="6" t="s">
-        <v>198</v>
+      <c r="P31" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>28</v>
@@ -3259,22 +3262,22 @@
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>19</v>
@@ -3283,28 +3286,28 @@
         <v>26</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>28</v>
+      <c r="P32" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>28</v>
@@ -3318,52 +3321,52 @@
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>28</v>
+        <v>217</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>28</v>
@@ -3377,22 +3380,22 @@
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>25</v>
@@ -3401,25 +3404,25 @@
         <v>26</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="O34" s="10" t="s">
         <v>227</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>228</v>
@@ -3439,10 +3442,10 @@
         <v>229</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>230</v>
@@ -3451,37 +3454,37 @@
         <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>28</v>
@@ -3495,31 +3498,31 @@
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>28</v>
@@ -3540,7 +3543,7 @@
         <v>28</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>28</v>
@@ -3554,31 +3557,31 @@
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>28</v>
@@ -3599,7 +3602,7 @@
         <v>28</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>28</v>
@@ -3613,52 +3616,52 @@
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="C38" s="11" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>28</v>
@@ -3672,22 +3675,22 @@
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
@@ -3696,25 +3699,25 @@
         <v>26</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P39" s="8" t="s">
         <v>28</v>
@@ -3731,22 +3734,22 @@
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>19</v>
@@ -3755,22 +3758,22 @@
         <v>26</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>28</v>
@@ -3790,55 +3793,55 @@
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>28</v>
+      <c r="P41" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>28</v>
@@ -3849,31 +3852,31 @@
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>28</v>
@@ -3894,10 +3897,10 @@
         <v>28</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>28</v>
@@ -3908,31 +3911,31 @@
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>28</v>
@@ -3953,10 +3956,10 @@
         <v>28</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>28</v>
@@ -3967,22 +3970,22 @@
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>25</v>
@@ -3991,7 +3994,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>28</v>
@@ -4012,7 +4015,7 @@
         <v>28</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="12" t="s">
         <v>28</v>
@@ -4026,22 +4029,22 @@
     </row>
     <row r="45" spans="1:19" ht="45" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>19</v>
@@ -4050,22 +4053,22 @@
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>28</v>
@@ -4085,22 +4088,22 @@
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>19</v>
@@ -4109,7 +4112,7 @@
         <v>26</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>28</v>
@@ -4130,7 +4133,7 @@
         <v>28</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="12" t="s">
         <v>28</v>
@@ -4144,22 +4147,22 @@
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>19</v>
@@ -4168,7 +4171,7 @@
         <v>26</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>28</v>
@@ -4189,7 +4192,7 @@
         <v>28</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>28</v>
@@ -4203,22 +4206,22 @@
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>19</v>
@@ -4227,7 +4230,7 @@
         <v>26</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>28</v>
@@ -4248,7 +4251,7 @@
         <v>28</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q48" s="12" t="s">
         <v>28</v>
@@ -4262,22 +4265,22 @@
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>19</v>
@@ -4286,7 +4289,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>28</v>
@@ -4307,7 +4310,7 @@
         <v>28</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>28</v>
@@ -4321,22 +4324,22 @@
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>19</v>
@@ -4345,7 +4348,7 @@
         <v>26</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>28</v>
@@ -4366,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q50" s="12" t="s">
         <v>28</v>
@@ -4422,7 +4425,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4443,13 +4446,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
@@ -4457,41 +4460,41 @@
     </row>
     <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4499,13 +4502,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F6" s="3">
         <v>107</v>
@@ -4575,28 +4578,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>28</v>
@@ -4617,10 +4620,10 @@
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>28</v>
@@ -4634,25 +4637,25 @@
         <v>25</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>82</v>
@@ -4693,28 +4696,28 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>28</v>
@@ -4735,10 +4738,10 @@
         <v>28</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>28</v>
@@ -4752,25 +4755,25 @@
         <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>82</v>
@@ -4794,7 +4797,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>28</v>
@@ -4811,25 +4814,25 @@
         <v>60</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>82</v>
@@ -4888,22 +4891,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="384">
   <si>
     <t>Row</t>
   </si>
@@ -874,7 +874,280 @@
     <t>35</t>
   </si>
   <si>
-    <t>SW9</t>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>31-AP64501SP-13CT-ND</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 5A 8-SOIC (0.154", 3.90mm Width) Exposed Pad</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.2-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>116 (89 SMD/ 25 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>106 (86 SMD/ 20 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J23 J24</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>SW9 SW10</t>
   </si>
   <si>
     <t>SW_SPST_B3U-1000P</t>
@@ -887,282 +1160,6 @@
   </si>
   <si>
     <t>Boot</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>31-AP64501SP-13CT-ND</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 5A 8-SOIC (0.154", 3.90mm Width) Exposed Pad</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.2-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>115 (88 SMD/ 25 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>107 (87 SMD/ 20 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>DIN5</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>MIDI In MIDI Out</t>
-  </si>
-  <si>
-    <t>J12 J15</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J23 J24</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>DNF</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1723,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1755,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1776,13 +1773,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
@@ -1790,41 +1787,41 @@
     </row>
     <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1832,16 +1829,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F6" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3914,28 +3911,28 @@
         <v>283</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>28</v>
@@ -3956,10 +3953,10 @@
         <v>28</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>28</v>
@@ -3968,12 +3965,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" customHeight="1">
+    <row r="44" spans="1:19" ht="45" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="10" t="s">
         <v>290</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>291</v>
@@ -3982,40 +3979,40 @@
         <v>292</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>28</v>
+        <v>295</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="O44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="10" t="s">
-        <v>295</v>
+      <c r="P44" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="Q44" s="12" t="s">
         <v>28</v>
@@ -4027,24 +4024,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="45" customHeight="1">
+    <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>299</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>19</v>
@@ -4053,28 +4050,28 @@
         <v>26</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="N45" s="6" t="s">
         <v>304</v>
       </c>
+      <c r="J45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="O45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>28</v>
+      <c r="P45" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>28</v>
@@ -4088,22 +4085,22 @@
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>307</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>19</v>
@@ -4112,7 +4109,7 @@
         <v>26</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>28</v>
@@ -4133,7 +4130,7 @@
         <v>28</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="12" t="s">
         <v>28</v>
@@ -4147,22 +4144,22 @@
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>19</v>
@@ -4171,7 +4168,7 @@
         <v>26</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>28</v>
@@ -4192,7 +4189,7 @@
         <v>28</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>28</v>
@@ -4206,22 +4203,22 @@
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>19</v>
@@ -4230,7 +4227,7 @@
         <v>26</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>28</v>
@@ -4251,7 +4248,7 @@
         <v>28</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q48" s="12" t="s">
         <v>28</v>
@@ -4265,22 +4262,22 @@
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>19</v>
@@ -4289,7 +4286,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>28</v>
@@ -4310,7 +4307,7 @@
         <v>28</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>28</v>
@@ -4319,65 +4316,6 @@
         <v>28</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="30" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S50" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4393,7 +4331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -4425,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4446,13 +4384,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
@@ -4460,41 +4398,41 @@
     </row>
     <row r="3" spans="1:19">
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4502,16 +4440,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F6" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4578,28 +4516,28 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>28</v>
@@ -4620,10 +4558,10 @@
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>28</v>
@@ -4643,19 +4581,19 @@
         <v>147</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>82</v>
@@ -4702,7 +4640,7 @@
         <v>147</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>149</v>
@@ -4714,7 +4652,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>151</v>
@@ -4741,7 +4679,7 @@
         <v>152</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>28</v>
@@ -4755,25 +4693,25 @@
         <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>82</v>
@@ -4797,7 +4735,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>28</v>
@@ -4820,10 +4758,10 @@
         <v>213</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>216</v>
@@ -4832,7 +4770,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>82</v>
@@ -4865,6 +4803,65 @@
         <v>28</v>
       </c>
       <c r="S13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4891,22 +4888,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -736,7 +736,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>R4 R5 R10 R11 R16 R17</t>
+    <t>R4 R5 R10 R11 R16</t>
   </si>
   <si>
     <t>1K</t>
@@ -754,7 +754,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R14</t>
+    <t>R14 R17</t>
   </si>
   <si>
     <t>2.2K 1%</t>
@@ -3572,7 +3572,7 @@
         <v>216</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>26</v>
@@ -3631,7 +3631,7 @@
         <v>216</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>26</v>
@@ -3657,8 +3657,8 @@
       <c r="O38" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="P38" s="12" t="s">
-        <v>28</v>
+      <c r="P38" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>28</v>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="350">
   <si>
     <t>Row</t>
   </si>
@@ -760,7 +760,7 @@
     <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
   </si>
   <si>
-    <t>Tactile</t>
+    <t>Tactile Button</t>
   </si>
   <si>
     <t>SW_PUSH-12mm_Wuerth</t>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>SW9 SW10</t>
+  </si>
+  <si>
+    <t>Micro Button</t>
   </si>
   <si>
     <t>SW_SPST_B3U-1000P</t>
@@ -3827,10 +3830,10 @@
         <v>340</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
@@ -3839,13 +3842,13 @@
         <v>325</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3877,22 +3880,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -136,255 +136,255 @@
     <t>4</t>
   </si>
   <si>
-    <t>C1 C11 C12 C13 C14 C16 C18 C19 C20 C21 C22 C25 C27 C28 C36 C39</t>
+    <t>C1 C12 C13 C14 C16 C18 C19 C20 C21 C22 C25 C27 C36 C39</t>
   </si>
   <si>
     <t>100n</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>10% 16V Ceramic Capacitor X7R</t>
+  </si>
+  <si>
+    <t>1276-1180-1-ND</t>
+  </si>
+  <si>
+    <t>581-08055C104K</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C15 C17</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
+  </si>
+  <si>
+    <t>25V/10%</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C29 C30 C33 C35 C38</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
+  </si>
+  <si>
+    <t>10% or 20% 35V Ceramic Capacitor X6S 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>CP_EIA-7343-31_Kemet-D</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/ABE0000/ABE0000C49.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/EEF-CX0J101R/816418</t>
+  </si>
+  <si>
+    <t>Capacitor, SP-Cap, 100u, 6.3V, 15mR ESR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED R</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D5 D7</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>40V/3A</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
-  </si>
-  <si>
-    <t>10% 16V Ceramic Capacitor X7R</t>
-  </si>
-  <si>
-    <t>1276-1180-1-ND</t>
-  </si>
-  <si>
-    <t>581-08055C104K</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C15 C17</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
-  </si>
-  <si>
-    <t>25V/10%</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C29 C30 C33 C35 C38</t>
-  </si>
-  <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
-  </si>
-  <si>
-    <t>10% or 20% 35V Ceramic Capacitor X6S 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>100u</t>
-  </si>
-  <si>
-    <t>CP_EIA-7343-31_Kemet-D</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/ABE0000/ABE0000C49.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/EEF-CX0J101R/816418</t>
-  </si>
-  <si>
-    <t>Capacitor, SP-Cap, 100u, 6.3V, 15mR ESR</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CM4</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V(51)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>LED R</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D2 D3 D4 D6</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D5 D7</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
-    <t>40V/3A</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
     <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
   </si>
   <si>
@@ -967,13 +967,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>116 (89 SMD/ 25 THT)</t>
+    <t>112 (85 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>106 (86 SMD/ 20 THT)</t>
+    <t>102 (82 SMD/ 20 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1630,7 +1630,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1724,7 +1724,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2198,7 +2198,7 @@
         <v>86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>20</v>
@@ -2303,22 +2303,22 @@
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>13</v>
@@ -2327,10 +2327,10 @@
         <v>20</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>24</v>
@@ -2347,19 +2347,19 @@
         <v>53</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2368,10 +2368,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>24</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>121</v>
@@ -3567,7 +3567,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -487,7 +487,7 @@
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
+    <t>J8 J11 J13 J14 J19 J21 J22</t>
   </si>
   <si>
     <t>LED-Ring</t>
@@ -967,13 +967,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>112 (85 SMD/ 25 THT)</t>
+    <t>113 (85 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>102 (82 SMD/ 20 THT)</t>
+    <t>103 (82 SMD/ 21 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1724,7 +1724,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2567,7 +2567,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>20</v>
@@ -3567,7 +3567,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -487,7 +487,7 @@
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
-    <t>J8 J11 J13 J14 J19 J21 J22</t>
+    <t>J8 J11 J13 J14 J19 J21 J22 J27</t>
   </si>
   <si>
     <t>LED-Ring</t>
@@ -967,13 +967,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>113 (85 SMD/ 26 THT)</t>
+    <t>114 (85 SMD/ 27 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>103 (82 SMD/ 21 THT)</t>
+    <t>104 (82 SMD/ 22 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1724,7 +1724,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2567,7 +2567,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>20</v>
@@ -3567,7 +3567,7 @@
         <v>319</v>
       </c>
       <c r="F6" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="356">
   <si>
     <t>Row</t>
   </si>
@@ -523,6 +523,24 @@
     <t>22</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>stemma</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>Inductor with ferrite core</t>
   </si>
   <si>
@@ -544,7 +562,7 @@
     <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Inductor symbol for simulation only</t>
@@ -571,7 +589,7 @@
     <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>P-Channel MOSFET</t>
@@ -592,7 +610,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Resistor, small symbol</t>
@@ -619,7 +637,7 @@
     <t>Resistor 10R 1% 63mW</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R8 R9</t>
@@ -634,7 +652,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R3</t>
@@ -646,7 +664,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>R1 R6</t>
@@ -658,7 +676,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>R4 R5 R10 R11 R16</t>
@@ -670,7 +688,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -691,7 +709,7 @@
     <t>Resistor 2.2K 1% 63mW</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>R13</t>
@@ -706,7 +724,7 @@
     <t>Resistor 12K 1% 63mW</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>R15</t>
@@ -721,7 +739,7 @@
     <t>Resistor 20K 1% 63mW</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -748,7 +766,7 @@
     <t>VOL GAIN</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -775,7 +793,7 @@
     <t>D E F A B C</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Single OR Gage</t>
@@ -796,7 +814,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>AP64351</t>
@@ -817,7 +835,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
@@ -838,7 +856,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>A microcontroller by Raspberry Pi</t>
@@ -859,7 +877,7 @@
     <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
@@ -880,7 +898,7 @@
     <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
   </si>
   <si>
-    <t>40</t>
+    <t>41</t>
   </si>
   <si>
     <t>Flash Memory</t>
@@ -904,7 +922,7 @@
     <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -967,13 +985,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>114 (85 SMD/ 27 THT)</t>
+    <t>115 (86 SMD/ 27 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>104 (82 SMD/ 22 THT)</t>
+    <t>105 (83 SMD/ 22 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1618,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1644,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1659,55 +1677,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1715,16 +1733,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2629,7 +2647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
         <v>166</v>
       </c>
@@ -2649,16 +2667,16 @@
         <v>171</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>173</v>
+      <c r="I30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
@@ -2672,37 +2690,37 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>182</v>
+      <c r="K31" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>24</v>
@@ -2713,22 +2731,22 @@
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
@@ -2737,13 +2755,13 @@
         <v>20</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>24</v>
@@ -2754,37 +2772,37 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>198</v>
+      <c r="K33" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>24</v>
@@ -2795,22 +2813,22 @@
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>19</v>
@@ -2824,8 +2842,8 @@
       <c r="J34" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>24</v>
+      <c r="K34" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>24</v>
@@ -2836,34 +2854,34 @@
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>24</v>
@@ -2877,34 +2895,34 @@
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>202</v>
-      </c>
       <c r="J36" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>24</v>
@@ -2918,34 +2936,34 @@
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>24</v>
@@ -2959,13 +2977,13 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>219</v>
@@ -2974,89 +2992,89 @@
         <v>220</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
@@ -3065,13 +3083,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>24</v>
@@ -3082,37 +3100,37 @@
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="K41" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>24</v>
@@ -3123,37 +3141,37 @@
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="G42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>24</v>
@@ -3164,51 +3182,51 @@
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="G43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
+      <c r="K43" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="L43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="45" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>259</v>
@@ -3217,51 +3235,51 @@
         <v>260</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="K44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>267</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3270,10 +3288,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -3287,22 +3305,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3311,10 +3329,10 @@
         <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>24</v>
@@ -3328,22 +3346,22 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3352,10 +3370,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>24</v>
@@ -3369,22 +3387,22 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3393,10 +3411,10 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>24</v>
@@ -3410,22 +3428,22 @@
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3434,18 +3452,59 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="B50" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="8" t="s">
+      <c r="C50" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3487,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3502,55 +3561,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3558,16 +3617,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3616,34 +3675,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>24</v>
@@ -3663,19 +3722,19 @@
         <v>128</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>78</v>
@@ -3704,7 +3763,7 @@
         <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>130</v>
@@ -3716,7 +3775,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>132</v>
@@ -3739,31 +3798,31 @@
         <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3780,25 +3839,25 @@
         <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>78</v>
@@ -3821,34 +3880,34 @@
         <v>50</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3880,22 +3939,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -964,7 +964,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.2-RC</t>
+    <t>3.1.0-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="358">
   <si>
     <t>Row</t>
   </si>
@@ -403,6 +403,96 @@
     <t>17</t>
   </si>
   <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J11 J13 J14 J19 J21 J22 J27</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>STEMMA I2C</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
@@ -412,631 +502,547 @@
     <t>J26</t>
   </si>
   <si>
+    <t>STEMMA LED</t>
+  </si>
+  <si>
+    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2 R12</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>Resistor 10R 1% 63mW</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R1 R6</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R4 R5 R10 R11 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R14 R17</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K 1% 63mW</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
+  </si>
+  <si>
+    <t>Resistor 12K 1% 63mW</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
+  </si>
+  <si>
+    <t>Resistor 20K 1% 63mW</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile Button</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.1.0-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>115 (86 SMD/ 27 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>105 (83 SMD/ 22 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J23 J24</t>
+  </si>
+  <si>
     <t>JST XH 3</t>
   </si>
   <si>
     <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J5 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J11 J13 J14 J19 J21 J22 J27</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Vertical USB B Micro Connector</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J28</t>
-  </si>
-  <si>
-    <t>stemma</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2 R12</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>Resistor 10R 1% 63mW</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R1 R6</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R4 R5 R10 R11 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R14 R17</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K 1% 63mW</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
-  </si>
-  <si>
-    <t>Resistor 12K 1% 63mW</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
-  </si>
-  <si>
-    <t>Resistor 20K 1% 63mW</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile Button</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.1.0-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>115 (86 SMD/ 27 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>105 (83 SMD/ 22 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>DIN5</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>MIDI In MIDI Out</t>
-  </si>
-  <si>
-    <t>J12 J15</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J23 J24</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -2442,7 +2448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="45" customHeight="1">
+    <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>20</v>
@@ -2473,8 +2479,8 @@
       <c r="J25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>24</v>
+      <c r="K25" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>24</v>
@@ -2485,37 +2491,37 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>24</v>
@@ -2524,68 +2530,68 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+    <row r="27" spans="1:13" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="I27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>20</v>
@@ -2606,24 +2612,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+    <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -2632,39 +2638,39 @@
         <v>20</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>13</v>
@@ -2672,11 +2678,11 @@
       <c r="H30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>24</v>
+      <c r="I30" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
@@ -3716,10 +3722,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>335</v>
@@ -3757,19 +3763,19 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>338</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -3778,10 +3784,10 @@
         <v>331</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -3798,19 +3804,19 @@
         <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -3822,7 +3828,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3845,10 +3851,10 @@
         <v>198</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>201</v>
@@ -3886,13 +3892,13 @@
         <v>250</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
@@ -3901,13 +3907,13 @@
         <v>331</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3939,22 +3945,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="357">
   <si>
     <t>Row</t>
   </si>
@@ -1040,9 +1040,6 @@
   </si>
   <si>
     <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -3775,7 +3772,7 @@
         <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -3804,19 +3801,19 @@
         <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -3828,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3851,10 +3848,10 @@
         <v>198</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>201</v>
@@ -3892,13 +3889,13 @@
         <v>250</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
@@ -3907,13 +3904,13 @@
         <v>331</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3945,22 +3942,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -70,7 +70,7 @@
     <t>C_Small</t>
   </si>
   <si>
-    <t>C23 C26</t>
+    <t>C22 C26</t>
   </si>
   <si>
     <t>27p</t>
@@ -103,7 +103,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C32 C34</t>
+    <t>C29 C34</t>
   </si>
   <si>
     <t>1n</t>
@@ -136,7 +136,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C1 C12 C13 C14 C16 C18 C19 C20 C21 C22 C25 C27 C36 C39</t>
+    <t>C1 C11 C13 C15 C16 C17 C18 C19 C20 C21 C23 C25 C30 C35</t>
   </si>
   <si>
     <t>100n</t>
@@ -160,7 +160,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>C15 C17</t>
+    <t>C12 C14</t>
   </si>
   <si>
     <t>1u</t>
@@ -175,7 +175,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C29 C30 C33 C35 C38</t>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C27 C28 C32 C36 C37</t>
   </si>
   <si>
     <t>10u</t>
@@ -199,7 +199,7 @@
     <t>CP</t>
   </si>
   <si>
-    <t>C37</t>
+    <t>C33</t>
   </si>
   <si>
     <t>100u</t>
@@ -247,7 +247,7 @@
     <t>LED</t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D7</t>
   </si>
   <si>
     <t>LED R</t>
@@ -262,7 +262,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>D8</t>
+    <t>D6</t>
   </si>
   <si>
     <t>LED Y</t>
@@ -277,7 +277,7 @@
     <t>SK6812</t>
   </si>
   <si>
-    <t>D3 D4</t>
+    <t>D2 D3</t>
   </si>
   <si>
     <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
@@ -322,7 +322,7 @@
     <t>D_Schottky_Small</t>
   </si>
   <si>
-    <t>D5 D7</t>
+    <t>D4 D5</t>
   </si>
   <si>
     <t>SS34HF</t>
@@ -391,7 +391,7 @@
     <t>Raspberry_Sound_Card</t>
   </si>
   <si>
-    <t>J25</t>
+    <t>J27</t>
   </si>
   <si>
     <t>HiFi Berry</t>
@@ -436,7 +436,7 @@
     <t>NMJ6HCD2</t>
   </si>
   <si>
-    <t>J5 J9 J16 J17 J18 J20</t>
+    <t>J5 J8 J18 J19 J20 J22</t>
   </si>
   <si>
     <t>Jack 6.35mm</t>
@@ -463,7 +463,7 @@
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
-    <t>J8 J11 J13 J14 J19 J21 J22 J27</t>
+    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
   </si>
   <si>
     <t>LED-Ring</t>
@@ -481,27 +481,27 @@
     <t>Conn_01x04_Pin</t>
   </si>
   <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>STEMMA I2C</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
     <t>J28</t>
   </si>
   <si>
-    <t>STEMMA I2C</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
     <t>STEMMA LED</t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>USB_B_Micro-Connector</t>
   </si>
   <si>
-    <t>J10</t>
+    <t>J11</t>
   </si>
   <si>
     <t>USB_B_Micro</t>
@@ -619,7 +619,7 @@
     <t>R_Small</t>
   </si>
   <si>
-    <t>R2 R12</t>
+    <t>R5 R13</t>
   </si>
   <si>
     <t>10R</t>
@@ -640,7 +640,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>R8 R9</t>
+    <t>R6 R10</t>
   </si>
   <si>
     <t>27R</t>
@@ -655,7 +655,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>R4</t>
   </si>
   <si>
     <t>33R</t>
@@ -667,7 +667,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>R1 R6</t>
+    <t>R3 R7</t>
   </si>
   <si>
     <t>220R</t>
@@ -679,7 +679,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>R4 R5 R10 R11 R16</t>
+    <t>R1 R2 R8 R11 R16</t>
   </si>
   <si>
     <t>1K</t>
@@ -697,7 +697,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R14 R17</t>
+    <t>R15 R17</t>
   </si>
   <si>
     <t>2K2</t>
@@ -712,7 +712,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>R13</t>
+    <t>R12</t>
   </si>
   <si>
     <t>12K</t>
@@ -727,7 +727,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>R15</t>
+    <t>R14</t>
   </si>
   <si>
     <t>20K</t>
@@ -775,7 +775,7 @@
     <t>SW_Omron_B3FS</t>
   </si>
   <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
   </si>
   <si>
     <t>Tactile Button</t>
@@ -802,7 +802,7 @@
     <t>74AHCT1G32SE-7</t>
   </si>
   <si>
-    <t>U2 U7</t>
+    <t>U1 U7</t>
   </si>
   <si>
     <t>SOT-353_SC-70-5</t>
@@ -865,51 +865,51 @@
     <t>RP2040</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>W25Q128JVS</t>
   </si>
   <si>
@@ -1027,7 +1027,7 @@
     <t>MIDI In MIDI Out</t>
   </si>
   <si>
-    <t>J12 J15</t>
+    <t>J12 J16</t>
   </si>
   <si>
     <t>Debug</t>
@@ -1036,7 +1036,7 @@
     <t>PinHeader_1x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>J23 J24</t>
+    <t>J25 J26</t>
   </si>
   <si>
     <t>JST XH 3</t>
@@ -1057,13 +1057,13 @@
     <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
-    <t>R7</t>
+    <t>R9</t>
   </si>
   <si>
     <t>DNF</t>
   </si>
   <si>
-    <t>SW9 SW10</t>
+    <t>SW3 SW4</t>
   </si>
   <si>
     <t>Micro Button</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="358">
   <si>
     <t>Row</t>
   </si>
@@ -490,6 +490,12 @@
     <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -508,10 +514,7 @@
     <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
   </si>
   <si>
     <t>22</t>
@@ -1665,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1680,13 +1683,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1694,41 +1697,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1736,13 +1739,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -2568,7 +2571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>150</v>
       </c>
@@ -2593,11 +2596,11 @@
       <c r="H28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>24</v>
+      <c r="I28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>24</v>
@@ -2609,24 +2612,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45" customHeight="1">
+    <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
@@ -2635,10 +2638,10 @@
         <v>20</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -2652,22 +2655,22 @@
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>13</v>
@@ -2676,10 +2679,10 @@
         <v>20</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
@@ -2693,22 +2696,22 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>37</v>
@@ -2717,10 +2720,10 @@
         <v>20</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>24</v>
@@ -2734,22 +2737,22 @@
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
@@ -2758,13 +2761,13 @@
         <v>20</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>24</v>
@@ -2775,22 +2778,22 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2799,10 +2802,10 @@
         <v>20</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>24</v>
@@ -2816,22 +2819,22 @@
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>19</v>
@@ -2840,13 +2843,13 @@
         <v>20</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>24</v>
@@ -2857,22 +2860,22 @@
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>19</v>
@@ -2881,10 +2884,10 @@
         <v>20</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>24</v>
@@ -2898,22 +2901,22 @@
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>13</v>
@@ -2922,10 +2925,10 @@
         <v>20</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>24</v>
@@ -2939,22 +2942,22 @@
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>19</v>
@@ -2963,10 +2966,10 @@
         <v>20</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>24</v>
@@ -2980,22 +2983,22 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>45</v>
@@ -3004,10 +3007,10 @@
         <v>20</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>24</v>
@@ -3021,22 +3024,22 @@
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
@@ -3045,13 +3048,13 @@
         <v>20</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>24</v>
@@ -3062,22 +3065,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
@@ -3086,13 +3089,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>24</v>
@@ -3103,22 +3106,22 @@
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3127,13 +3130,13 @@
         <v>20</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>24</v>
@@ -3144,22 +3147,22 @@
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>19</v>
@@ -3168,13 +3171,13 @@
         <v>20</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>24</v>
@@ -3185,22 +3188,22 @@
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>50</v>
@@ -3209,13 +3212,13 @@
         <v>20</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>24</v>
@@ -3226,22 +3229,22 @@
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>19</v>
@@ -3250,10 +3253,10 @@
         <v>20</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>24</v>
@@ -3267,22 +3270,22 @@
     </row>
     <row r="45" spans="1:13" ht="45" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3291,10 +3294,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -3308,22 +3311,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3332,10 +3335,10 @@
         <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>24</v>
@@ -3349,22 +3352,22 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3373,10 +3376,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>24</v>
@@ -3390,22 +3393,22 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3414,10 +3417,10 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>24</v>
@@ -3431,22 +3434,22 @@
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3455,10 +3458,10 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>24</v>
@@ -3472,22 +3475,22 @@
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>13</v>
@@ -3496,10 +3499,10 @@
         <v>20</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>24</v>
@@ -3549,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3564,13 +3567,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3578,41 +3581,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3620,13 +3623,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -3678,34 +3681,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>24</v>
@@ -3719,25 +3722,25 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>78</v>
@@ -3755,36 +3758,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" customHeight="1">
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -3801,31 +3804,31 @@
         <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>341</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3842,25 +3845,25 @@
         <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>78</v>
@@ -3883,34 +3886,34 @@
         <v>50</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3942,22 +3945,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="357">
   <si>
     <t>Row</t>
   </si>
@@ -403,6 +403,51 @@
     <t>17</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>JST PH 3</t>
+  </si>
+  <si>
+    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -427,7 +472,7 @@
     <t>MIDI Out</t>
   </si>
   <si>
-    <t>18</t>
+    <t>20</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -454,7 +499,7 @@
     <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
   </si>
   <si>
-    <t>19</t>
+    <t>21</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -472,51 +517,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>STEMMA I2C</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J28</t>
-  </si>
-  <si>
-    <t>STEMMA LED</t>
-  </si>
-  <si>
-    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -1040,9 +1040,6 @@
   </si>
   <si>
     <t>J25 J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -2468,7 +2465,7 @@
         <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>20</v>
@@ -2479,8 +2476,8 @@
       <c r="J25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>134</v>
+      <c r="K25" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>24</v>
@@ -2491,78 +2488,78 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="45" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>24</v>
@@ -2591,7 +2588,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>20</v>
@@ -2602,8 +2599,8 @@
       <c r="J28" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>24</v>
+      <c r="K28" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>24</v>
@@ -2612,36 +2609,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+    <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>164</v>
+      <c r="I29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -3722,10 +3719,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>336</v>
@@ -3763,19 +3760,19 @@
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
@@ -3784,10 +3781,10 @@
         <v>332</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -3804,19 +3801,19 @@
         <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -3828,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3851,10 +3848,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>202</v>
@@ -3892,13 +3889,13 @@
         <v>251</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
@@ -3907,13 +3904,13 @@
         <v>332</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3945,22 +3942,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="353">
   <si>
     <t>Row</t>
   </si>
@@ -97,12 +97,6 @@
     <t/>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C29 C34</t>
   </si>
   <si>
@@ -692,12 +686,6 @@
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>R15 R17</t>
@@ -1665,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1680,13 +1668,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1694,41 +1682,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1736,13 +1724,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -1835,16 +1823,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
@@ -1859,10 +1847,10 @@
         <v>21</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>24</v>
@@ -1873,19 +1861,19 @@
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
@@ -1897,13 +1885,13 @@
         <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>24</v>
@@ -1914,7 +1902,7 @@
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -1923,16 +1911,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>20</v>
@@ -1941,21 +1929,21 @@
         <v>21</v>
       </c>
       <c r="J12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -1964,10 +1952,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
@@ -1982,10 +1970,10 @@
         <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>24</v>
@@ -1996,25 +1984,25 @@
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>20</v>
@@ -2023,10 +2011,10 @@
         <v>21</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -2037,22 +2025,22 @@
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
@@ -2061,13 +2049,13 @@
         <v>20</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>24</v>
@@ -2078,22 +2066,22 @@
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>13</v>
@@ -2102,13 +2090,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>24</v>
@@ -2119,22 +2107,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2143,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>24</v>
@@ -2160,22 +2148,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>13</v>
@@ -2184,7 +2172,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>24</v>
@@ -2201,22 +2189,22 @@
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>19</v>
@@ -2225,10 +2213,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>24</v>
@@ -2242,22 +2230,22 @@
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>13</v>
@@ -2266,10 +2254,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>24</v>
@@ -2283,22 +2271,22 @@
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>19</v>
@@ -2307,13 +2295,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>24</v>
@@ -2324,22 +2312,22 @@
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>13</v>
@@ -2348,10 +2336,10 @@
         <v>20</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>24</v>
@@ -2365,22 +2353,22 @@
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>13</v>
@@ -2389,10 +2377,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>24</v>
@@ -2406,22 +2394,22 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>13</v>
@@ -2447,22 +2435,22 @@
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>13</v>
@@ -2471,10 +2459,10 @@
         <v>20</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>24</v>
@@ -2488,22 +2476,22 @@
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>13</v>
@@ -2512,10 +2500,10 @@
         <v>20</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>24</v>
@@ -2529,22 +2517,22 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>19</v>
@@ -2553,13 +2541,13 @@
         <v>20</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>24</v>
@@ -2570,37 +2558,37 @@
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>24</v>
@@ -2611,31 +2599,31 @@
     </row>
     <row r="29" spans="1:13" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>24</v>
@@ -2652,22 +2640,22 @@
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>13</v>
@@ -2676,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
@@ -2693,34 +2681,34 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>24</v>
@@ -2734,22 +2722,22 @@
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
@@ -2758,13 +2746,13 @@
         <v>20</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>24</v>
@@ -2775,22 +2763,22 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -2799,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>24</v>
@@ -2816,22 +2804,22 @@
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>19</v>
@@ -2840,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>24</v>
@@ -2857,22 +2845,22 @@
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>19</v>
@@ -2881,10 +2869,10 @@
         <v>20</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>24</v>
@@ -2898,22 +2886,22 @@
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>13</v>
@@ -2922,10 +2910,10 @@
         <v>20</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>24</v>
@@ -2939,22 +2927,22 @@
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>19</v>
@@ -2963,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>24</v>
@@ -2980,34 +2968,34 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="F38" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>24</v>
@@ -3021,22 +3009,22 @@
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
@@ -3045,13 +3033,13 @@
         <v>20</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>24</v>
@@ -3062,22 +3050,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
@@ -3086,13 +3074,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>24</v>
@@ -3103,22 +3091,22 @@
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
@@ -3127,13 +3115,13 @@
         <v>20</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>24</v>
@@ -3144,22 +3132,22 @@
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>19</v>
@@ -3168,13 +3156,13 @@
         <v>20</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>24</v>
@@ -3185,37 +3173,37 @@
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="G43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="K43" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>24</v>
@@ -3226,22 +3214,22 @@
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>19</v>
@@ -3250,10 +3238,10 @@
         <v>20</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>24</v>
@@ -3267,22 +3255,22 @@
     </row>
     <row r="45" spans="1:13" ht="45" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3291,10 +3279,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -3308,22 +3296,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3332,10 +3320,10 @@
         <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>24</v>
@@ -3349,22 +3337,22 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3373,10 +3361,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>24</v>
@@ -3390,22 +3378,22 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3414,10 +3402,10 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>24</v>
@@ -3431,22 +3419,22 @@
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3455,10 +3443,10 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>24</v>
@@ -3472,22 +3460,22 @@
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="F50" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>13</v>
@@ -3496,10 +3484,10 @@
         <v>20</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>24</v>
@@ -3549,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3564,13 +3552,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3578,41 +3566,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3620,13 +3608,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -3678,34 +3666,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>24</v>
@@ -3719,28 +3707,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>24</v>
@@ -3757,34 +3745,34 @@
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -3798,34 +3786,34 @@
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3839,31 +3827,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>24</v>
@@ -3880,37 +3868,37 @@
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3942,22 +3930,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="355">
   <si>
     <t>Row</t>
   </si>
@@ -686,6 +686,12 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>R15 R17</t>
@@ -1653,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1668,13 +1674,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1682,41 +1688,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1724,13 +1730,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -3012,16 +3018,16 @@
         <v>221</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>200</v>
@@ -3036,10 +3042,10 @@
         <v>201</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>24</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>200</v>
@@ -3074,13 +3080,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>24</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>200</v>
@@ -3118,10 +3124,10 @@
         <v>207</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>24</v>
@@ -3132,22 +3138,22 @@
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>19</v>
@@ -3156,13 +3162,13 @@
         <v>20</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>24</v>
@@ -3173,22 +3179,22 @@
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>48</v>
@@ -3197,13 +3203,13 @@
         <v>20</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>24</v>
@@ -3214,22 +3220,22 @@
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>19</v>
@@ -3238,10 +3244,10 @@
         <v>20</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>24</v>
@@ -3255,22 +3261,22 @@
     </row>
     <row r="45" spans="1:13" ht="45" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3279,10 +3285,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -3296,22 +3302,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3320,10 +3326,10 @@
         <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>24</v>
@@ -3337,22 +3343,22 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3361,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>24</v>
@@ -3378,22 +3384,22 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3402,10 +3408,10 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>24</v>
@@ -3419,22 +3425,22 @@
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3443,10 +3449,10 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>24</v>
@@ -3460,22 +3466,22 @@
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>13</v>
@@ -3484,10 +3490,10 @@
         <v>20</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>24</v>
@@ -3537,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3552,13 +3558,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3566,41 +3572,41 @@
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3608,13 +3614,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -3666,34 +3672,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>24</v>
@@ -3713,19 +3719,19 @@
         <v>126</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>76</v>
@@ -3754,7 +3760,7 @@
         <v>126</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>128</v>
@@ -3766,7 +3772,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>130</v>
@@ -3789,31 +3795,31 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3836,10 +3842,10 @@
         <v>197</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>200</v>
@@ -3848,7 +3854,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>76</v>
@@ -3871,34 +3877,34 @@
         <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3930,22 +3936,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="351">
   <si>
     <t>Row</t>
   </si>
@@ -397,13 +397,622 @@
     <t>17</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J8 J18 J19 J20 J22</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R5 R13</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>Resistor 10R 1% 63mW</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>R6 R10</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R3 R7</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R1 R2 R8 R11 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R15 R17</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K 1% 63mW</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
+  </si>
+  <si>
+    <t>Resistor 12K 1% 63mW</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
+  </si>
+  <si>
+    <t>Resistor 20K 1% 63mW</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
+  </si>
+  <si>
+    <t>Tactile Button</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U1 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.1.0-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>115 (86 SMD/ 27 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>104 (83 SMD/ 21 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>J28</t>
+    <t>J12 J16</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J25 J26 J28</t>
   </si>
   <si>
     <t>JST PH 3</t>
@@ -412,628 +1021,7 @@
     <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>JST PH 4</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J5 J8 J18 J19 J20 J22</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Vertical USB B Micro Connector</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R5 R13</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>Resistor 10R 1% 63mW</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R6 R10</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R3 R7</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R1 R2 R8 R11 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R15 R17</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K 1% 63mW</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
-  </si>
-  <si>
-    <t>Resistor 12K 1% 63mW</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
-  </si>
-  <si>
-    <t>Resistor 20K 1% 63mW</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
-  </si>
-  <si>
-    <t>Tactile Button</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U1 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.1.0-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>115 (86 SMD/ 27 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>105 (83 SMD/ 22 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>DIN5</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>MIDI In MIDI Out</t>
-  </si>
-  <si>
-    <t>J12 J16</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J25 J26</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -1633,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1659,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1674,55 +1662,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1730,16 +1718,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F6" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2500,19 +2488,19 @@
         <v>137</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>24</v>
+        <v>139</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>24</v>
@@ -2523,37 +2511,37 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>24</v>
@@ -2562,77 +2550,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+    <row r="28" spans="1:13" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="I28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>24</v>
+      <c r="J29" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>24</v>
@@ -2646,34 +2634,34 @@
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>24</v>
@@ -2687,37 +2675,37 @@
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>24</v>
+        <v>179</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>24</v>
@@ -2728,22 +2716,22 @@
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>183</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
@@ -2752,13 +2740,13 @@
         <v>20</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K32" s="10" t="s">
         <v>187</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>24</v>
@@ -2781,25 +2769,25 @@
         <v>191</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>24</v>
+        <v>195</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>24</v>
@@ -2810,13 +2798,13 @@
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>198</v>
@@ -2825,7 +2813,7 @@
         <v>199</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>19</v>
@@ -2834,13 +2822,13 @@
         <v>20</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>203</v>
+      <c r="K34" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>24</v>
@@ -2851,34 +2839,34 @@
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>24</v>
@@ -2892,34 +2880,34 @@
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>24</v>
@@ -2933,34 +2921,34 @@
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>24</v>
@@ -2974,104 +2962,104 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="L38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J38" s="10" t="s">
+      <c r="B39" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="F39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="J39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="L39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="B40" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="E40" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
@@ -3080,13 +3068,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>24</v>
@@ -3097,31 +3085,31 @@
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>236</v>
@@ -3156,7 +3144,7 @@
         <v>243</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>20</v>
@@ -3191,92 +3179,92 @@
         <v>250</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="B44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="G44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="K44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="45" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
@@ -3285,10 +3273,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>24</v>
@@ -3302,22 +3290,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
@@ -3326,10 +3314,10 @@
         <v>20</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>24</v>
@@ -3343,22 +3331,22 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>13</v>
@@ -3367,10 +3355,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>24</v>
@@ -3384,22 +3372,22 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>286</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3408,10 +3396,10 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>24</v>
@@ -3425,22 +3413,22 @@
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
@@ -3449,11 +3437,11 @@
         <v>20</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="K49" s="8" t="s">
         <v>24</v>
       </c>
@@ -3461,47 +3449,6 @@
         <v>24</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3543,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3558,55 +3505,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3614,16 +3561,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F6" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3672,34 +3619,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>24</v>
@@ -3713,25 +3660,25 @@
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>76</v>
@@ -3754,31 +3701,31 @@
         <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>130</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -3795,31 +3742,31 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>24</v>
@@ -3836,25 +3783,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>76</v>
@@ -3877,34 +3824,34 @@
         <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>24</v>
@@ -3936,22 +3883,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -934,13 +934,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.1.0-RC</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-10-20</t>
+    <t>2023-12-04</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -934,7 +934,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.1.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -934,13 +934,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.1.1-RC</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-04</t>
+    <t>2023-12-05</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="352">
   <si>
     <t>Row</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Sim.Enable</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -88,15 +91,15 @@
     <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
   </si>
   <si>
     <t>50V/5%</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>C29 C34</t>
   </si>
   <si>
@@ -934,7 +937,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.1.1</t>
+    <t>3.2.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1621,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1639,15 +1642,16 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" customHeight="1">
+    <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1659,78 +1663,79 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1770,160 +1775,172 @@
       <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="I10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>27</v>
+      <c r="J10" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>24</v>
+      <c r="L10" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>24</v>
+      <c r="L11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>40</v>
@@ -1934,1527 +1951,1641 @@
       <c r="M12" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+      <c r="N12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>24</v>
+      <c r="L13" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>24</v>
+      <c r="L14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="6" t="s">
         <v>61</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>24</v>
+      <c r="L15" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>24</v>
+      <c r="L16" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="D18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="6" t="s">
         <v>102</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>24</v>
+      <c r="L21" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="H26" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="10" t="s">
         <v>139</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>24</v>
+      <c r="L26" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="6" t="s">
         <v>148</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>24</v>
+      <c r="L27" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>24</v>
+      <c r="J29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>24</v>
+      <c r="J30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="6" t="s">
         <v>179</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>24</v>
+      <c r="L31" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="6" t="s">
         <v>195</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>24</v>
+      <c r="L33" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="H36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="J36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="C37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L38" s="12" t="s">
-        <v>24</v>
+      <c r="L38" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>227</v>
+        <v>201</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="L40" s="12" t="s">
-        <v>24</v>
+      <c r="L40" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J41" s="6" t="s">
         <v>236</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>24</v>
+      <c r="L41" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J42" s="10" t="s">
         <v>245</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L42" s="12" t="s">
-        <v>24</v>
+      <c r="L42" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>24</v>
+      <c r="J43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="45" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="45" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="J44" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>24</v>
+      <c r="J44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="J45" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>24</v>
+      <c r="J45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J46" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="K46" s="12" t="s">
-        <v>24</v>
+      <c r="J46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J47" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>24</v>
+      <c r="J47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J48" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="K48" s="12" t="s">
-        <v>24</v>
+      <c r="J48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="J49" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>24</v>
+      <c r="J49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3464,7 +3595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3482,15 +3613,16 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="60.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" customHeight="1">
+    <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3502,78 +3634,79 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -3613,256 +3746,277 @@
       <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="6" t="s">
         <v>323</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>24</v>
+      <c r="L9" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>24</v>
+        <v>131</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>335</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J14" s="10" t="s">
         <v>345</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>24</v>
+      <c r="L14" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3883,22 +4037,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="356">
   <si>
     <t>Row</t>
   </si>
@@ -685,6 +685,18 @@
     <t>31</t>
   </si>
   <si>
+    <t>R18 R19</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>R12</t>
   </si>
   <si>
@@ -697,7 +709,7 @@
     <t>Resistor 12K 1% 63mW</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>R14</t>
@@ -712,7 +724,7 @@
     <t>Resistor 20K 1% 63mW</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -739,7 +751,7 @@
     <t>VOL GAIN</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -766,7 +778,7 @@
     <t>D E F A B C</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Single OR Gage</t>
@@ -787,7 +799,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>AP64351</t>
@@ -808,7 +820,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
@@ -829,7 +841,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>A microcontroller by Raspberry Pi</t>
@@ -850,7 +862,7 @@
     <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
@@ -871,7 +883,7 @@
     <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
   </si>
   <si>
-    <t>40</t>
+    <t>41</t>
   </si>
   <si>
     <t>Flash Memory</t>
@@ -895,7 +907,7 @@
     <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -958,13 +970,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>115 (86 SMD/ 27 THT)</t>
+    <t>117 (88 SMD/ 27 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>104 (83 SMD/ 21 THT)</t>
+    <t>106 (85 SMD/ 21 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1624,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1651,7 +1663,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1667,55 +1679,55 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1723,16 +1735,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3099,7 +3111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>220</v>
       </c>
@@ -3119,33 +3131,33 @@
         <v>194</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>190</v>
@@ -3154,10 +3166,10 @@
         <v>191</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>194</v>
@@ -3169,16 +3181,16 @@
         <v>21</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>23</v>
@@ -3189,40 +3201,40 @@
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>23</v>
@@ -3233,40 +3245,40 @@
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="G42" s="9" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>23</v>
@@ -3277,110 +3289,110 @@
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="C44" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="45" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="E44" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="G44" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="45" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -3389,13 +3401,13 @@
         <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>23</v>
@@ -3409,22 +3421,22 @@
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="E46" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>14</v>
@@ -3433,13 +3445,13 @@
         <v>21</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>23</v>
@@ -3453,22 +3465,22 @@
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -3477,13 +3489,13 @@
         <v>21</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>23</v>
@@ -3497,22 +3509,22 @@
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="E48" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>14</v>
@@ -3521,13 +3533,13 @@
         <v>21</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>23</v>
@@ -3541,22 +3553,22 @@
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -3565,21 +3577,65 @@
         <v>21</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="6" t="s">
+      <c r="D50" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="8" t="s">
+      <c r="E50" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3622,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3638,55 +3694,55 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3694,16 +3750,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3755,37 +3811,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>23</v>
@@ -3799,25 +3855,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>77</v>
@@ -3843,25 +3899,25 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>131</v>
@@ -3870,7 +3926,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>23</v>
@@ -3887,25 +3943,25 @@
         <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>77</v>
@@ -3914,7 +3970,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>23</v>
@@ -3937,10 +3993,10 @@
         <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>194</v>
@@ -3949,7 +4005,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>77</v>
@@ -3975,37 +4031,37 @@
         <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>23</v>
@@ -4037,22 +4093,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="355">
   <si>
     <t>Row</t>
   </si>
@@ -496,6 +496,540 @@
     <t>21</t>
   </si>
   <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R5 R13</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>Resistor 10R 1% 63mW</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>R6 R10</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R3 R7</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R1 R2 R8 R11 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R15 R17</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K 1% 63mW</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R18 R19</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
+  </si>
+  <si>
+    <t>Resistor 12K 1% 63mW</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
+  </si>
+  <si>
+    <t>Resistor 20K 1% 63mW</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
+  </si>
+  <si>
+    <t>Tactile Button</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U1 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.2.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>117 (88 SMD/ 27 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>105 (85 SMD/ 20 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>MIDI In MIDI Out</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J12 J16</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J25 J26 J28</t>
+  </si>
+  <si>
+    <t>JST PH 3</t>
+  </si>
+  <si>
+    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
+  </si>
+  <si>
     <t>Vertical USB B Micro Connector</t>
   </si>
   <si>
@@ -515,543 +1049,6 @@
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R5 R13</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>Resistor 10R 1% 63mW</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>R6 R10</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R3 R7</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R1 R2 R8 R11 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R15 R17</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K 1% 63mW</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R18 R19</t>
-  </si>
-  <si>
-    <t>3K9</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
-  </si>
-  <si>
-    <t>Resistor 12K 1% 63mW</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
-  </si>
-  <si>
-    <t>Resistor 20K 1% 63mW</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
-  </si>
-  <si>
-    <t>Tactile Button</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U1 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.2.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>117 (88 SMD/ 27 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>106 (85 SMD/ 21 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>DIN5</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>MIDI In MIDI Out</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J12 J16</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J25 J26 J28</t>
-  </si>
-  <si>
-    <t>JST PH 3</t>
-  </si>
-  <si>
-    <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
     <t>R9</t>
@@ -1636,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1663,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1679,13 +1676,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1693,41 +1690,41 @@
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1735,16 +1732,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="F6" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2691,7 +2688,7 @@
         <v>162</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>21</v>
@@ -2735,7 +2732,7 @@
         <v>170</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>21</v>
@@ -2749,8 +2746,8 @@
       <c r="K30" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>23</v>
+      <c r="L30" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>23</v>
@@ -2761,19 +2758,19 @@
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>178</v>
@@ -2793,8 +2790,8 @@
       <c r="K31" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>181</v>
+      <c r="L31" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>23</v>
@@ -2805,25 +2802,25 @@
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>186</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>21</v>
@@ -2837,8 +2834,8 @@
       <c r="K32" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>23</v>
+      <c r="L32" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>23</v>
@@ -2849,22 +2846,22 @@
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>20</v>
@@ -2873,16 +2870,16 @@
         <v>21</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>23</v>
@@ -2893,37 +2890,37 @@
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>23</v>
@@ -2937,37 +2934,37 @@
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>23</v>
@@ -2981,37 +2978,37 @@
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>23</v>
@@ -3025,40 +3022,40 @@
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>23</v>
@@ -3069,22 +3066,22 @@
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>20</v>
@@ -3093,86 +3090,86 @@
         <v>21</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>14</v>
@@ -3181,16 +3178,16 @@
         <v>21</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="12" t="s">
-        <v>23</v>
+      <c r="K40" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>23</v>
@@ -3201,40 +3198,40 @@
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>23</v>
@@ -3245,40 +3242,40 @@
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>23</v>
@@ -3289,25 +3286,25 @@
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>21</v>
@@ -3321,66 +3318,66 @@
       <c r="K43" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="45" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="10" t="s">
+      <c r="L44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="45" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>260</v>
@@ -3389,10 +3386,10 @@
         <v>261</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -3401,13 +3398,13 @@
         <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>23</v>
@@ -3421,22 +3418,22 @@
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>14</v>
@@ -3445,13 +3442,13 @@
         <v>21</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>23</v>
@@ -3465,22 +3462,22 @@
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -3489,13 +3486,13 @@
         <v>21</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>23</v>
@@ -3509,19 +3506,19 @@
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>284</v>
@@ -3592,50 +3589,6 @@
         <v>23</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3651,7 +3604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3662,7 +3615,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
@@ -3678,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3694,13 +3647,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3708,41 +3661,41 @@
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3750,16 +3703,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="F6" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3811,37 +3764,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>23</v>
@@ -3855,25 +3808,25 @@
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>77</v>
@@ -3899,25 +3852,25 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>131</v>
@@ -3926,7 +3879,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>23</v>
@@ -3943,25 +3896,25 @@
         <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>77</v>
@@ -3970,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>23</v>
@@ -3982,39 +3935,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>77</v>
+        <v>318</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>23</v>
+      <c r="K13" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>23</v>
@@ -4026,47 +3979,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
+    <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="J15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="L15" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="M15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4093,22 +4090,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -382,6 +382,102 @@
     <t>16</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J8 J18 J19 J20 J22</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
   </si>
   <si>
@@ -391,106 +487,10 @@
     <t>J27</t>
   </si>
   <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>JST PH 4</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J5 J8 J18 J19 J20 J22</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
+    <t>Pedalboard Soundcard</t>
+  </si>
+  <si>
+    <t>Pedalboard_Soundcard</t>
   </si>
   <si>
     <t>21</t>
@@ -2448,7 +2448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>119</v>
       </c>
@@ -2473,14 +2473,14 @@
       <c r="H24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>23</v>
+      <c r="I24" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>23</v>
+      <c r="K24" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>23</v>
@@ -2494,40 +2494,40 @@
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>23</v>
+        <v>134</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>23</v>
@@ -2538,40 +2538,40 @@
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>23</v>
@@ -2580,42 +2580,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
+    <row r="27" spans="1:14" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>148</v>
+      <c r="I27" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>150</v>
+      <c r="K27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>23</v>
@@ -2624,7 +2624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="45" customHeight="1">
+    <row r="28" spans="1:14">
       <c r="A28" s="9" t="s">
         <v>151</v>
       </c>
@@ -2644,13 +2644,13 @@
         <v>156</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>23</v>
@@ -3873,7 +3873,7 @@
         <v>318</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>23</v>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -358,6 +358,603 @@
     <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>MIDI Out</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J5 J8 J18 J19 J20 J22</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
+  </si>
+  <si>
+    <t>J27</t>
+  </si>
+  <si>
+    <t>Pedalboard Soundcard</t>
+  </si>
+  <si>
+    <t>Pedalboard_Soundcard</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
+  </si>
+  <si>
+    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R5 R13</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>Resistor 10R 1% 63mW</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>R6 R10</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R3 R7</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R1 R2 R8 R11 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R15 R17</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
+  </si>
+  <si>
+    <t>Resistor 2.2K 1% 63mW</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R18 R19</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
+  </si>
+  <si>
+    <t>Resistor 12K 1% 63mW</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
+  </si>
+  <si>
+    <t>Resistor 20K 1% 63mW</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>VOL GAIN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
+  </si>
+  <si>
+    <t>Tactile Button</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>D E F A B C</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U1 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.2.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>117 (88 SMD/ 27 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>105 (85 SMD/ 20 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -373,594 +970,15 @@
     <t>BarrelJack_Wuerth_6941xx301002</t>
   </si>
   <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>JST PH 4</t>
-  </si>
-  <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>MIDI Out</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J5 J8 J18 J19 J20 J22</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J9 J10 J13 J15 J17 J21 J23 J24</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
-  </si>
-  <si>
-    <t>Raspberry_Sound_Card</t>
-  </si>
-  <si>
-    <t>J27</t>
-  </si>
-  <si>
-    <t>Pedalboard Soundcard</t>
-  </si>
-  <si>
-    <t>Pedalboard_Soundcard</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Inductor symbol for simulation only</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>SRN6045TA-3R3Y</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN6045TA</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bourns-inc/SRN6045TA-3R3Y/6155103</t>
-  </si>
-  <si>
-    <t>3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R5 R13</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>Resistor 10R 1% 63mW</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>R6 R10</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>33R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R3 R7</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R1 R2 R8 R11 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R15 R17</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
-  </si>
-  <si>
-    <t>Resistor 2.2K 1% 63mW</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R18 R19</t>
-  </si>
-  <si>
-    <t>3K9</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
-  </si>
-  <si>
-    <t>Resistor 12K 1% 63mW</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT20K0/1760314</t>
-  </si>
-  <si>
-    <t>Resistor 20K 1% 63mW</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>VOL GAIN</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>SW5 SW6 SW7 SW8 SW9 SW10</t>
-  </si>
-  <si>
-    <t>Tactile Button</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>D E F A B C</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U1 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>AP64351</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>AP64501SP-13</t>
-  </si>
-  <si>
-    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>A microcontroller by Raspberry Pi</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.2.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>117 (88 SMD/ 27 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>105 (85 SMD/ 20 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
   </si>
   <si>
@@ -976,9 +994,6 @@
     <t>CP-2350</t>
   </si>
   <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
     <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
@@ -1013,21 +1028,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
     <t>Vertical USB B Micro Connector</t>
@@ -1646,7 +1646,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="59.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -1660,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -1690,41 +1690,41 @@
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -2468,7 +2468,7 @@
         <v>124</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>21</v>
@@ -2482,8 +2482,8 @@
       <c r="K24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>23</v>
+      <c r="L24" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>23</v>
@@ -2494,40 +2494,40 @@
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>23</v>
@@ -2536,77 +2536,77 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
+    <row r="26" spans="1:14" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>142</v>
+      <c r="I26" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="45" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>23</v>
@@ -2624,24 +2624,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>14</v>
@@ -2650,13 +2650,13 @@
         <v>21</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>23</v>
+      <c r="K28" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>23</v>
@@ -2670,22 +2670,22 @@
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>36</v>
@@ -2694,13 +2694,13 @@
         <v>21</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>23</v>
@@ -2714,22 +2714,22 @@
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>14</v>
@@ -2738,16 +2738,16 @@
         <v>21</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>23</v>
@@ -2758,22 +2758,22 @@
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>14</v>
@@ -2782,13 +2782,13 @@
         <v>21</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>23</v>
@@ -2802,22 +2802,22 @@
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>20</v>
@@ -2826,16 +2826,16 @@
         <v>21</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>23</v>
@@ -2846,22 +2846,22 @@
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>20</v>
@@ -2870,13 +2870,13 @@
         <v>21</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>23</v>
@@ -2890,22 +2890,22 @@
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="F34" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>14</v>
@@ -2914,13 +2914,13 @@
         <v>21</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>23</v>
@@ -2934,22 +2934,22 @@
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>20</v>
@@ -2958,13 +2958,13 @@
         <v>21</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>23</v>
@@ -2978,22 +2978,22 @@
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>44</v>
@@ -3002,13 +3002,13 @@
         <v>21</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>23</v>
@@ -3022,22 +3022,22 @@
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>20</v>
@@ -3046,16 +3046,16 @@
         <v>21</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>23</v>
@@ -3066,22 +3066,22 @@
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>20</v>
@@ -3090,13 +3090,13 @@
         <v>21</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>23</v>
@@ -3110,22 +3110,22 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>14</v>
@@ -3134,7 +3134,7 @@
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
@@ -3143,7 +3143,7 @@
         <v>23</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>23</v>
@@ -3154,22 +3154,22 @@
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>14</v>
@@ -3178,16 +3178,16 @@
         <v>21</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>23</v>
@@ -3198,22 +3198,22 @@
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>20</v>
@@ -3222,16 +3222,16 @@
         <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>23</v>
@@ -3242,22 +3242,22 @@
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>49</v>
@@ -3266,16 +3266,16 @@
         <v>21</v>
       </c>
       <c r="I42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>23</v>
@@ -3286,22 +3286,22 @@
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>20</v>
@@ -3310,13 +3310,13 @@
         <v>21</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>23</v>
@@ -3330,22 +3330,22 @@
     </row>
     <row r="44" spans="1:14" ht="45" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>14</v>
@@ -3354,13 +3354,13 @@
         <v>21</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>23</v>
@@ -3374,22 +3374,22 @@
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -3398,13 +3398,13 @@
         <v>21</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>23</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>14</v>
@@ -3442,13 +3442,13 @@
         <v>21</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>23</v>
@@ -3462,22 +3462,22 @@
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -3486,13 +3486,13 @@
         <v>21</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>23</v>
@@ -3506,22 +3506,22 @@
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>14</v>
@@ -3530,13 +3530,13 @@
         <v>21</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>23</v>
@@ -3550,22 +3550,22 @@
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -3574,13 +3574,13 @@
         <v>21</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>23</v>
@@ -3617,8 +3617,8 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
@@ -3631,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3647,13 +3647,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -3661,41 +3661,41 @@
     </row>
     <row r="3" spans="1:14">
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3703,13 +3703,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F6" s="3">
         <v>105</v>
@@ -3764,37 +3764,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>321</v>
+      <c r="L9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>23</v>
@@ -3803,42 +3803,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>77</v>
+        <v>316</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>23</v>
+      <c r="K10" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>23</v>
@@ -3847,39 +3847,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>125</v>
+        <v>316</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>330</v>
+      <c r="K11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>23</v>
@@ -3896,28 +3896,28 @@
         <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>334</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>77</v>
+        <v>316</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>23</v>
@@ -3958,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>341</v>
@@ -3984,10 +3984,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>343</v>
@@ -3996,13 +3996,13 @@
         <v>344</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>77</v>
@@ -4028,10 +4028,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>345</v>
@@ -4046,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>348</v>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="317">
   <si>
     <t>Row</t>
   </si>
@@ -73,7 +73,7 @@
     <t>C22 C26</t>
   </si>
   <si>
-    <t>27p</t>
+    <t>15p</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -790,22 +790,19 @@
     <t>40</t>
   </si>
   <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ABM8-272-T3</t>
+  </si>
+  <si>
+    <t>ABM8-272-T3_ABR</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6387/ABM8_272_T3-3392615-pages.pdf</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -847,13 +844,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>106 (85 SMD/ 20 THT)</t>
+    <t>107 (84 SMD/ 20 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>95 (82 SMD/ 12 THT)</t>
+    <t>96 (81 SMD/ 12 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1522,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1548,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1563,55 +1560,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1619,16 +1616,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3279,16 +3276,16 @@
         <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3297,18 +3294,59 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="10" t="s">
+      <c r="J49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3350,7 +3388,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3365,55 +3403,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3421,16 +3459,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3482,28 +3520,28 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>14</v>
@@ -3523,31 +3561,31 @@
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>14</v>
@@ -3567,19 +3605,19 @@
         <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>73</v>
@@ -3608,19 +3646,19 @@
         <v>99</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>103</v>
@@ -3646,28 +3684,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>14</v>
@@ -3690,10 +3728,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>161</v>
@@ -3702,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>73</v>
@@ -3731,28 +3769,28 @@
         <v>210</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>14</v>
@@ -3784,27 +3822,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="316">
   <si>
     <t>Row</t>
   </si>
@@ -247,7 +247,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>D6</t>
+    <t>D2 D6</t>
   </si>
   <si>
     <t>LED Y</t>
@@ -520,7 +520,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>R6 R10</t>
+    <t>R6 R10 R21</t>
   </si>
   <si>
     <t>27R</t>
@@ -790,15 +790,12 @@
     <t>40</t>
   </si>
   <si>
+    <t>ABM8-272-T3</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ABM8-272-T3</t>
-  </si>
-  <si>
     <t>ABM8-272-T3_ABR</t>
   </si>
   <si>
@@ -844,13 +841,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>107 (84 SMD/ 20 THT)</t>
+    <t>108 (87 SMD/ 20 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>96 (81 SMD/ 12 THT)</t>
+    <t>97 (84 SMD/ 12 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1519,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1545,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1560,55 +1557,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1616,16 +1613,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2058,7 +2055,7 @@
         <v>72</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>20</v>
@@ -2632,7 +2629,7 @@
         <v>161</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>20</v>
@@ -3276,16 +3273,16 @@
         <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
@@ -3294,59 +3291,18 @@
         <v>20</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>23</v>
+        <v>259</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3388,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3403,55 +3359,55 @@
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3459,16 +3415,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3520,28 +3476,28 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>14</v>
@@ -3561,31 +3517,31 @@
         <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>14</v>
@@ -3605,19 +3561,19 @@
         <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>73</v>
@@ -3646,19 +3602,19 @@
         <v>99</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>103</v>
@@ -3684,28 +3640,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>14</v>
@@ -3728,10 +3684,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>161</v>
@@ -3740,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>73</v>
@@ -3769,28 +3725,28 @@
         <v>210</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>14</v>
@@ -3822,27 +3778,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -520,7 +520,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>R6 R10 R21</t>
+    <t>R6 R10</t>
   </si>
   <si>
     <t>27R</t>
@@ -559,13 +559,13 @@
     <t>27</t>
   </si>
   <si>
-    <t>R1 R2 R8 R11 R16</t>
+    <t>R1 R2 R8 R11 R16 R21</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
     <t>28</t>
@@ -2629,7 +2629,7 @@
         <v>161</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>20</v>
@@ -2732,7 +2732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1">
+    <row r="35" spans="1:13" ht="60" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>178</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>20</v>

--- a/latest/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="355">
   <si>
     <t>Row</t>
   </si>
@@ -61,6 +61,12 @@
     <t>Mouser</t>
   </si>
   <si>
+    <t>Field4</t>
+  </si>
+  <si>
+    <t>Field5</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -94,6 +100,15 @@
     <t>50V/5%</t>
   </si>
   <si>
+    <t>C11 C25</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C29 C34</t>
   </si>
   <si>
@@ -106,7 +121,7 @@
     <t>1000 pF, 50 V</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>C31</t>
@@ -124,7 +139,7 @@
     <t>10% 10V Ceramic Capacitor X5R</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>C1 C13 C15 C16 C17 C18 C19 C20 C21 C23 C30 C35</t>
@@ -148,7 +163,7 @@
     <t>581-08055C104K</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>C12 C14</t>
@@ -163,162 +178,159 @@
     <t>25V/10%</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C27 C28 C32 C36 C37</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C27 C28 C32 C36 C37 C38 C39 C40 C41 C42</t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
+  </si>
+  <si>
+    <t>10% or 20% 35V Ceramic Capacitor X6S 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>C33 C43</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>CP_EIA-7343-31_Kemet-D</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/ABE0000/ABE0000C49.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/EEF-CX0J101R/816418</t>
+  </si>
+  <si>
+    <t>Capacitor, SP-Cap, 100u, 6.3V, 15mR ESR</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>LED R</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D2 D6</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D4 D5</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>40V/3A</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
-  </si>
-  <si>
-    <t>10% or 20% 35V Ceramic Capacitor X6S 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>100u</t>
-  </si>
-  <si>
-    <t>CP_EIA-7343-31_Kemet-D</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/ABE0000/ABE0000C49.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/EEF-CX0J101R/816418</t>
-  </si>
-  <si>
-    <t>Capacitor, SP-Cap, 100u, 6.3V, 15mR ESR</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CM4</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V(51)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>LED R</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>D2 D6</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D4 D5</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
-    <t>40V/3A</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
@@ -337,6 +349,9 @@
     <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B3B-PH-K-S/926612</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Conn_01x04_Pin</t>
   </si>
   <si>
@@ -352,7 +367,7 @@
     <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>AudioJack3_SwitchTR</t>
@@ -376,7 +391,7 @@
     <t>MIDI Out</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>NMJ6HCD2</t>
@@ -400,7 +415,7 @@
     <t>EXP1 EXP2 Audio IN Right Audio OUT Left Audio OUT Right Audio IN Left</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Raspberry_Sound_Card</t>
@@ -415,9 +430,6 @@
     <t>Pedalboard_Soundcard</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Screw_Terminal_01x02</t>
   </si>
   <si>
@@ -430,7 +442,49 @@
     <t>https://www.digikey.ch/de/products/detail/phoenix-contact/1715022/260626</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>USB Type A connector, stacked</t>
+  </si>
+  <si>
+    <t>USB_A_Stacked</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>USB mini/micro connector</t>
+  </si>
+  <si>
+    <t>USB_OTG</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>L_Ferrite</t>
@@ -451,7 +505,7 @@
     <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
   </si>
   <si>
-    <t>21</t>
+    <t>25</t>
   </si>
   <si>
     <t>INDUCTOR</t>
@@ -475,7 +529,7 @@
     <t xml:space="preserve">3.3µH Semi-Shielded Wirewound Inductor 7.8A 21mOhm Nonstandard </t>
   </si>
   <si>
-    <t>22</t>
+    <t>26</t>
   </si>
   <si>
     <t>FDS4435BZ</t>
@@ -493,7 +547,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
   </si>
   <si>
-    <t>23</t>
+    <t>27</t>
   </si>
   <si>
     <t>R_Small</t>
@@ -517,7 +571,7 @@
     <t>Resistor 10R 1% 63mW</t>
   </si>
   <si>
-    <t>24</t>
+    <t>28</t>
   </si>
   <si>
     <t>R6 R10</t>
@@ -532,7 +586,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
-    <t>25</t>
+    <t>29</t>
   </si>
   <si>
     <t>R4</t>
@@ -544,7 +598,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
   </si>
   <si>
-    <t>26</t>
+    <t>30</t>
   </si>
   <si>
     <t>R3 R7 R20</t>
@@ -556,7 +610,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
   </si>
   <si>
-    <t>27</t>
+    <t>31</t>
   </si>
   <si>
     <t>R1 R2 R8 R11 R16 R21</t>
@@ -568,22 +622,22 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R15 R17</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R15 R17 R22 R23</t>
   </si>
   <si>
     <t>2K2</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345</t>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT2K20/1760345 https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
   </si>
   <si>
     <t>Resistor 2.2K 1% 63mW</t>
   </si>
   <si>
-    <t>29</t>
+    <t>33</t>
   </si>
   <si>
     <t>R18 R19</t>
@@ -595,10 +649,10 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R12</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>R12 R24</t>
   </si>
   <si>
     <t>12K</t>
@@ -607,10 +661,13 @@
     <t>https://www.seielect.com/Catalog/SEI-rmef.PDF</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
     <t>Resistor 12K 1% 63mW</t>
   </si>
   <si>
-    <t>31</t>
+    <t>35</t>
   </si>
   <si>
     <t>R14</t>
@@ -625,7 +682,16 @@
     <t>Resistor 20K 1% 63mW</t>
   </si>
   <si>
-    <t>32</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R25 R26 R27 R28 R29</t>
+  </si>
+  <si>
+    <t>36K</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>RotaryEncoder_Switch</t>
@@ -649,7 +715,7 @@
     <t>VOL GAIN</t>
   </si>
   <si>
-    <t>33</t>
+    <t>38</t>
   </si>
   <si>
     <t>SW_Omron_B3FS</t>
@@ -673,7 +739,7 @@
     <t>D E F A B C</t>
   </si>
   <si>
-    <t>34</t>
+    <t>39</t>
   </si>
   <si>
     <t>74AHCT1G32SE-7</t>
@@ -691,7 +757,25 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
   </si>
   <si>
-    <t>35</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>AP2553W6</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP255x.pdf</t>
+  </si>
+  <si>
+    <t>AP2553W6-7DICT-ND</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>AP64351</t>
@@ -712,7 +796,25 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AP64501SP-13/10419715</t>
   </si>
   <si>
-    <t>36</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Low-Power, Two-Port, High-Speed, USB2.0 (480Mbps) or UART Switch, MSOP-10</t>
+  </si>
+  <si>
+    <t>FSUSB42MUX</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>MSOP-10_3x3mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/FSUSB42-D.PDF</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>NCP1117-3.3_SOT223</t>
@@ -730,7 +832,7 @@
     <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
   </si>
   <si>
-    <t>37</t>
+    <t>44</t>
   </si>
   <si>
     <t>RP2040</t>
@@ -748,7 +850,7 @@
     <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
   </si>
   <si>
-    <t>38</t>
+    <t>45</t>
   </si>
   <si>
     <t>TLP2761</t>
@@ -766,7 +868,25 @@
     <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
   </si>
   <si>
-    <t>39</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>USB 2.0 Hi-Speed Hub Controller</t>
+  </si>
+  <si>
+    <t>USB2514B_Bi</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>QFN-36-1EP_6x6mm_P0.5mm_EP3.7x3.7mm</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/00001692C.pdf</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>W25Q128JVS-Memory_Flash</t>
@@ -787,7 +907,7 @@
     <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
   </si>
   <si>
-    <t>40</t>
+    <t>48</t>
   </si>
   <si>
     <t>ABM8-272-T3</t>
@@ -802,6 +922,21 @@
     <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6387/ABM8_272_T3-3392615-pages.pdf</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Two pin crystal, small symbol</t>
+  </si>
+  <si>
+    <t>Crystal_Small</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-SD</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -841,13 +976,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>108 (87 SMD/ 20 THT)</t>
+    <t>130 (96 SMD/ 20 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>97 (84 SMD/ 12 THT)</t>
+    <t>120 (93 SMD/ 13 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -911,24 +1046,6 @@
   </si>
   <si>
     <t>JST_PH_B3B-PH-K_1x03_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
   </si>
   <si>
     <t>R9</t>
@@ -1137,8 +1254,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1516,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1526,9 +1643,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1538,11 +1655,13 @@
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" customHeight="1">
+    <row r="1" spans="1:15" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1554,78 +1673,80 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="2" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="F6" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1665,98 +1786,116 @@
       <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>29</v>
@@ -1765,121 +1904,139 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="J12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="K12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="N13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>48</v>
@@ -1888,162 +2045,186 @@
         <v>49</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="K14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="H16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="L16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="L17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>75</v>
@@ -2052,364 +2233,418 @@
         <v>76</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="D20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="K20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="B22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="D22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="E22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="K22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="D23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="K24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="D25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="L25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="H26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="L26" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>132</v>
@@ -2418,493 +2653,565 @@
         <v>133</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="K28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="C29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="B30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="E30" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="G30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="E32" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="G32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J32" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="J33" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="K33" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="L33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
+      <c r="B34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="G34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="J34" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="K34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J34" s="12" t="s">
+      <c r="D35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="60" customHeight="1">
-      <c r="A35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="G35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>14</v>
+      <c r="K35" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K36" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="J37" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>195</v>
       </c>
+      <c r="K38" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="L38" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="60" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>197</v>
@@ -2913,402 +3220,885 @@
         <v>198</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="60" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="F40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="K40" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="L40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="11" t="s">
+      <c r="B41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="E41" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="F41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1">
-      <c r="A41" s="5" t="s">
+      <c r="K41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E42" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="J42" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="K42" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="30" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="45" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="H46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="J46" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="K46" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="L46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="E47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="G47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="J47" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" s="11" t="s">
+      <c r="K47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="11" t="s">
+      <c r="B48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1">
-      <c r="A47" s="5" t="s">
+      <c r="E48" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="G48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="J48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E47" s="7" t="s">
+    </row>
+    <row r="49" spans="1:15" ht="45" customHeight="1">
+      <c r="A49" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="G49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="J49" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="K49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="30" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>14</v>
+      <c r="C50" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="30" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="30" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="30" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="30" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="30" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3318,7 +4108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3329,10 +4119,10 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
@@ -3340,11 +4130,13 @@
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" customHeight="1">
+    <row r="1" spans="1:15" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3356,78 +4148,80 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="2" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="F6" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -3467,297 +4261,298 @@
       <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="5" t=